--- a/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.01021591182018</v>
+        <v>21.01021591182025</v>
       </c>
       <c r="C2">
-        <v>11.93069235220178</v>
+        <v>11.93069235220159</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.80968581122669</v>
+        <v>10.80968581122667</v>
       </c>
       <c r="F2">
-        <v>35.4882059986127</v>
+        <v>35.48820599861276</v>
       </c>
       <c r="G2">
-        <v>27.98339074489835</v>
+        <v>27.98339074489838</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.62761206256838</v>
+        <v>10.62761206256836</v>
       </c>
       <c r="J2">
-        <v>17.65636157092654</v>
+        <v>17.65636157092656</v>
       </c>
       <c r="K2">
-        <v>12.88596972596919</v>
+        <v>12.88596972596913</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51061040664672</v>
+        <v>19.51061040664662</v>
       </c>
       <c r="C3">
-        <v>11.14684643205781</v>
+        <v>11.14684643205797</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.09265800824712</v>
+        <v>10.09265800824711</v>
       </c>
       <c r="F3">
         <v>33.19363089846978</v>
       </c>
       <c r="G3">
-        <v>26.73822679587338</v>
+        <v>26.73822679587343</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.56807867088723</v>
+        <v>10.56807867088727</v>
       </c>
       <c r="J3">
-        <v>16.44106823203168</v>
+        <v>16.44106823203164</v>
       </c>
       <c r="K3">
-        <v>12.0634585548865</v>
+        <v>12.06345855488653</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.54325585970115</v>
+        <v>18.54325585970114</v>
       </c>
       <c r="C4">
-        <v>10.64294484306665</v>
+        <v>10.64294484306673</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.63031669979426</v>
+        <v>9.630316699794324</v>
       </c>
       <c r="F4">
-        <v>31.74011925845584</v>
+        <v>31.74011925845583</v>
       </c>
       <c r="G4">
-        <v>25.97904740138953</v>
+        <v>25.97904740138958</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.54126123800046</v>
+        <v>10.54126123800045</v>
       </c>
       <c r="J4">
-        <v>15.65772012391561</v>
+        <v>15.65772012391559</v>
       </c>
       <c r="K4">
-        <v>11.53434863022399</v>
+        <v>11.53434863022404</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13712940864053</v>
+        <v>18.13712940864048</v>
       </c>
       <c r="C5">
         <v>10.43183071494217</v>
@@ -535,25 +535,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.436293092129597</v>
+        <v>9.436293092129587</v>
       </c>
       <c r="F5">
         <v>31.1368237426678</v>
       </c>
       <c r="G5">
-        <v>25.67121085391066</v>
+        <v>25.67121085391078</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.53260633094199</v>
+        <v>10.53260633094215</v>
       </c>
       <c r="J5">
-        <v>15.32900109524334</v>
+        <v>15.3290010952433</v>
       </c>
       <c r="K5">
-        <v>11.31261920503366</v>
+        <v>11.31261920503369</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06896661656618</v>
+        <v>18.0689666165661</v>
       </c>
       <c r="C6">
-        <v>10.39642476900861</v>
+        <v>10.39642476900864</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -576,22 +576,22 @@
         <v>9.403734810405956</v>
       </c>
       <c r="F6">
-        <v>31.03599380058972</v>
+        <v>31.03599380058968</v>
       </c>
       <c r="G6">
-        <v>25.6201940179207</v>
+        <v>25.62019401792066</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.53130155466322</v>
+        <v>10.53130155466319</v>
       </c>
       <c r="J6">
-        <v>15.27383960172141</v>
+        <v>15.27383960172139</v>
       </c>
       <c r="K6">
-        <v>11.27543069337569</v>
+        <v>11.27543069337572</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.5378272294713</v>
+        <v>18.53782722947128</v>
       </c>
       <c r="C7">
-        <v>10.64012114488246</v>
+        <v>10.64012114488268</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.627722843071972</v>
+        <v>9.627722843072057</v>
       </c>
       <c r="F7">
-        <v>31.73202702849039</v>
+        <v>31.73202702849044</v>
       </c>
       <c r="G7">
-        <v>25.9748893082867</v>
+        <v>25.97488930828679</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.54113553453718</v>
+        <v>10.54113553453708</v>
       </c>
       <c r="J7">
-        <v>15.65332555806186</v>
+        <v>15.65332555806189</v>
       </c>
       <c r="K7">
-        <v>11.53138312232523</v>
+        <v>11.53138312232532</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.50269331959465</v>
+        <v>20.50269331959468</v>
       </c>
       <c r="C8">
-        <v>11.66506130820434</v>
+        <v>11.66506130820422</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.56699694480914</v>
+        <v>10.5669969448092</v>
       </c>
       <c r="F8">
         <v>34.70640602813732</v>
       </c>
       <c r="G8">
-        <v>27.55304253290418</v>
+        <v>27.55304253290413</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.60495610432305</v>
+        <v>10.60495610432304</v>
       </c>
       <c r="J8">
         <v>17.24494092090026</v>
       </c>
       <c r="K8">
-        <v>12.60732711539816</v>
+        <v>12.60732711539818</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.99622033214104</v>
+        <v>23.9962203321411</v>
       </c>
       <c r="C9">
-        <v>13.50015533871537</v>
+        <v>13.50015533871529</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.23708585135364</v>
+        <v>12.23708585135363</v>
       </c>
       <c r="F9">
-        <v>40.34016599715077</v>
+        <v>40.3401659971508</v>
       </c>
       <c r="G9">
-        <v>30.6852741906094</v>
+        <v>30.68527419060942</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.81572451230246</v>
+        <v>10.81572451230249</v>
       </c>
       <c r="J9">
-        <v>20.07918090125834</v>
+        <v>20.07918090125839</v>
       </c>
       <c r="K9">
         <v>14.52964019291066</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.35923220094774</v>
+        <v>26.3592322009476</v>
       </c>
       <c r="C10">
-        <v>14.74966689700689</v>
+        <v>14.74966689700692</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.36491022767552</v>
+        <v>13.36491022767554</v>
       </c>
       <c r="F10">
-        <v>44.3537561671367</v>
+        <v>44.35375616713658</v>
       </c>
       <c r="G10">
-        <v>33.00832289779752</v>
+        <v>33.00832289779756</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.03522494902341</v>
+        <v>11.03522494902348</v>
       </c>
       <c r="J10">
-        <v>21.99896395990942</v>
+        <v>21.9989639599093</v>
       </c>
       <c r="K10">
-        <v>15.8337889269424</v>
+        <v>15.83378892694245</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.39392802867245</v>
+        <v>27.39392802867258</v>
       </c>
       <c r="C11">
-        <v>15.29881516139002</v>
+        <v>15.29881516138996</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.85792172407093</v>
+        <v>13.85792172407107</v>
       </c>
       <c r="F11">
-        <v>46.12513213735164</v>
+        <v>46.12513213735159</v>
       </c>
       <c r="G11">
-        <v>34.07147588274212</v>
+        <v>34.07147588274192</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.15215643985406</v>
+        <v>11.15215643985391</v>
       </c>
       <c r="J11">
-        <v>22.84022706692002</v>
+        <v>22.84022706692012</v>
       </c>
       <c r="K11">
-        <v>16.4053431494738</v>
+        <v>16.40534314947387</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.78032626597991</v>
+        <v>27.78032626597972</v>
       </c>
       <c r="C12">
-        <v>15.50420744491202</v>
+        <v>15.50420744491197</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.04187254555958</v>
+        <v>14.04187254555965</v>
       </c>
       <c r="F12">
-        <v>46.7886263424335</v>
+        <v>46.78862634243318</v>
       </c>
       <c r="G12">
-        <v>34.4752503750308</v>
+        <v>34.47525037503051</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.19917365021003</v>
+        <v>11.19917365021006</v>
       </c>
       <c r="J12">
-        <v>23.154489387259</v>
+        <v>23.15448938725884</v>
       </c>
       <c r="K12">
-        <v>16.61882897679077</v>
+        <v>16.61882897679082</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69734308199287</v>
+        <v>27.69734308199295</v>
       </c>
       <c r="C13">
-        <v>15.4600825909691</v>
+        <v>15.46008259096911</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.0023749560674</v>
+        <v>14.00237495606728</v>
       </c>
       <c r="F13">
-        <v>46.64604535638383</v>
+        <v>46.64604535638385</v>
       </c>
       <c r="G13">
-        <v>34.38823230132373</v>
+        <v>34.38823230132362</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.18892107513628</v>
+        <v>11.18892107513618</v>
       </c>
       <c r="J13">
-        <v>23.08699358209032</v>
+        <v>23.08699358209041</v>
       </c>
       <c r="K13">
-        <v>16.57297911453967</v>
+        <v>16.57297911453962</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.42582355276177</v>
+        <v>27.42582355276183</v>
       </c>
       <c r="C14">
-        <v>15.3157628480786</v>
+        <v>15.31576284807854</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.87310955057213</v>
+        <v>13.87310955057214</v>
       </c>
       <c r="F14">
-        <v>46.17986078162232</v>
+        <v>46.17986078162234</v>
       </c>
       <c r="G14">
-        <v>34.1046690435989</v>
+        <v>34.10466904359885</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.15596798260751</v>
+        <v>11.15596798260746</v>
       </c>
       <c r="J14">
-        <v>22.86616602067631</v>
+        <v>22.86616602067636</v>
       </c>
       <c r="K14">
-        <v>16.42296478022622</v>
+        <v>16.42296478022617</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.25881612136038</v>
+        <v>27.25881612136043</v>
       </c>
       <c r="C15">
-        <v>15.22703652577245</v>
+        <v>15.22703652577253</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.79357815935755</v>
+        <v>13.79357815935754</v>
       </c>
       <c r="F15">
-        <v>45.89337807368825</v>
+        <v>45.89337807368828</v>
       </c>
       <c r="G15">
-        <v>33.9311420571353</v>
+        <v>33.9311420571354</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.13614867903049</v>
+        <v>11.13614867903048</v>
       </c>
       <c r="J15">
-        <v>22.73035175660458</v>
+        <v>22.73035175660462</v>
       </c>
       <c r="K15">
-        <v>16.3306981630026</v>
+        <v>16.33069816300259</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.29083295941481</v>
+        <v>26.29083295941484</v>
       </c>
       <c r="C16">
-        <v>14.7134085192953</v>
+        <v>14.71340851929536</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.33229902190193</v>
+        <v>13.33229902190192</v>
       </c>
       <c r="F16">
-        <v>44.23694103323068</v>
+        <v>44.23694103323069</v>
       </c>
       <c r="G16">
-        <v>32.93899171263126</v>
+        <v>32.93899171263128</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.02795030802622</v>
+        <v>11.02795030802625</v>
       </c>
       <c r="J16">
-        <v>21.94336543694327</v>
+        <v>21.94336543694328</v>
       </c>
       <c r="K16">
-        <v>15.79601379165022</v>
+        <v>15.7960137916502</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.68694588919086</v>
+        <v>25.68694588919092</v>
       </c>
       <c r="C17">
-        <v>14.39352153389017</v>
+        <v>14.39352153389014</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.04427990271863</v>
+        <v>13.04427990271867</v>
       </c>
       <c r="F17">
-        <v>43.20718091389192</v>
+        <v>43.20718091389189</v>
       </c>
       <c r="G17">
-        <v>32.33212639939049</v>
+        <v>32.33212639939039</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.96614010033029</v>
+        <v>10.96614010033024</v>
       </c>
       <c r="J17">
-        <v>21.45256814866745</v>
+        <v>21.45256814866747</v>
       </c>
       <c r="K17">
-        <v>15.46255625275015</v>
+        <v>15.46255625275018</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33579282095562</v>
+        <v>25.33579282095563</v>
       </c>
       <c r="C18">
-        <v>14.20770360543551</v>
+        <v>14.20770360543563</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.87672308914611</v>
+        <v>12.87672308914612</v>
       </c>
       <c r="F18">
-        <v>42.609728771327</v>
+        <v>42.60972877132699</v>
       </c>
       <c r="G18">
-        <v>31.983652172409</v>
+        <v>31.98365217240892</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.93217768509235</v>
+        <v>10.93217768509225</v>
       </c>
       <c r="J18">
-        <v>21.16723686055517</v>
+        <v>21.16723686055519</v>
       </c>
       <c r="K18">
-        <v>15.26870503738929</v>
+        <v>15.26870503738939</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.21623300685675</v>
+        <v>25.21623300685678</v>
       </c>
       <c r="C19">
-        <v>14.14446907417867</v>
+        <v>14.14446907417862</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.81966165617226</v>
+        <v>12.81966165617223</v>
       </c>
       <c r="F19">
-        <v>42.40654057243601</v>
+        <v>42.40654057243603</v>
       </c>
       <c r="G19">
-        <v>31.86575802883275</v>
+        <v>31.86575802883279</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.92094342098865</v>
+        <v>10.92094342098866</v>
       </c>
       <c r="J19">
-        <v>21.07009826309578</v>
+        <v>21.07009826309582</v>
       </c>
       <c r="K19">
-        <v>15.20271253286501</v>
+        <v>15.20271253286492</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.75162282467871</v>
+        <v>25.75162282467882</v>
       </c>
       <c r="C20">
-        <v>14.42776175048377</v>
+        <v>14.42776175048382</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.07513528680298</v>
+        <v>13.07513528680294</v>
       </c>
       <c r="F20">
-        <v>43.31733125132944</v>
+        <v>43.31733125132962</v>
       </c>
       <c r="G20">
-        <v>32.3966668231221</v>
+        <v>32.39666682312232</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.97255348030869</v>
+        <v>10.97255348030871</v>
       </c>
       <c r="J20">
-        <v>21.50512667387593</v>
+        <v>21.505126673876</v>
       </c>
       <c r="K20">
-        <v>15.49826492475996</v>
+        <v>15.49826492475994</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.50571929508628</v>
+        <v>27.50571929508622</v>
       </c>
       <c r="C21">
-        <v>15.35822063248675</v>
+        <v>15.3582206324869</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.91115113717146</v>
+        <v>13.91115113717147</v>
       </c>
       <c r="F21">
-        <v>46.31698343524868</v>
+        <v>46.31698343524865</v>
       </c>
       <c r="G21">
-        <v>34.18792369299941</v>
+        <v>34.18792369299944</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.16557040553636</v>
+        <v>11.16557040553634</v>
       </c>
       <c r="J21">
-        <v>22.93114265487833</v>
+        <v>22.93114265487831</v>
       </c>
       <c r="K21">
-        <v>16.46710615962409</v>
+        <v>16.46710615962411</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.62074718303735</v>
+        <v>28.62074718303744</v>
       </c>
       <c r="C22">
-        <v>15.95154139699916</v>
+        <v>15.95154139699921</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.44163318323031</v>
+        <v>14.44163318323016</v>
       </c>
       <c r="F22">
-        <v>48.23528318326497</v>
+        <v>48.23528318326499</v>
       </c>
       <c r="G22">
-        <v>35.36571050915979</v>
+        <v>35.3657105091599</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.30782999071606</v>
+        <v>11.30782999071608</v>
       </c>
       <c r="J22">
-        <v>23.83820214358244</v>
+        <v>23.83820214358248</v>
       </c>
       <c r="K22">
-        <v>17.08320948974745</v>
+        <v>17.08320948974736</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.0283714925539</v>
+        <v>28.02837149255403</v>
       </c>
       <c r="C23">
-        <v>15.63614908866003</v>
+        <v>15.63614908865992</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.1599085800534</v>
+        <v>14.15990858005334</v>
       </c>
       <c r="F23">
-        <v>47.21509989149076</v>
+        <v>47.21509989149082</v>
       </c>
       <c r="G23">
-        <v>34.73633556622236</v>
+        <v>34.73633556622247</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.23032779255475</v>
+        <v>11.23032779255473</v>
       </c>
       <c r="J23">
-        <v>23.35625623564389</v>
+        <v>23.35625623564398</v>
       </c>
       <c r="K23">
-        <v>16.75588293917837</v>
+        <v>16.7558829391783</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>25.72239477612194</v>
       </c>
       <c r="C24">
-        <v>14.41228771527362</v>
+        <v>14.41228771527359</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.06119171651793</v>
+        <v>13.06119171651799</v>
       </c>
       <c r="F24">
-        <v>43.26754923425721</v>
+        <v>43.26754923425722</v>
       </c>
       <c r="G24">
-        <v>32.36748680540231</v>
+        <v>32.36748680540236</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.96964911229374</v>
+        <v>10.96964911229372</v>
       </c>
       <c r="J24">
         <v>21.48137484647859</v>
       </c>
       <c r="K24">
-        <v>15.48212771874393</v>
+        <v>15.48212771874397</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.08811416937855</v>
+        <v>23.08811416937854</v>
       </c>
       <c r="C25">
-        <v>13.02169676830248</v>
+        <v>13.02169676830251</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.80315037224719</v>
+        <v>11.80315037224722</v>
       </c>
       <c r="F25">
-        <v>38.81085412200049</v>
+        <v>38.8108541220006</v>
       </c>
       <c r="G25">
-        <v>29.83431860842884</v>
+        <v>29.834318608429</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.74831174853495</v>
+        <v>10.74831174853503</v>
       </c>
       <c r="J25">
-        <v>19.34196830637118</v>
+        <v>19.3419683063712</v>
       </c>
       <c r="K25">
-        <v>14.02912037043482</v>
+        <v>14.02912037043483</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.01021591182025</v>
+        <v>21.01021591182018</v>
       </c>
       <c r="C2">
-        <v>11.93069235220159</v>
+        <v>11.93069235220178</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.80968581122667</v>
+        <v>10.80968581122669</v>
       </c>
       <c r="F2">
-        <v>35.48820599861276</v>
+        <v>35.4882059986127</v>
       </c>
       <c r="G2">
-        <v>27.98339074489838</v>
+        <v>27.98339074489835</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.62761206256836</v>
+        <v>10.62761206256838</v>
       </c>
       <c r="J2">
-        <v>17.65636157092656</v>
+        <v>17.65636157092654</v>
       </c>
       <c r="K2">
-        <v>12.88596972596913</v>
+        <v>12.88596972596919</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51061040664662</v>
+        <v>19.51061040664672</v>
       </c>
       <c r="C3">
-        <v>11.14684643205797</v>
+        <v>11.14684643205781</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.09265800824711</v>
+        <v>10.09265800824712</v>
       </c>
       <c r="F3">
         <v>33.19363089846978</v>
       </c>
       <c r="G3">
-        <v>26.73822679587343</v>
+        <v>26.73822679587338</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.56807867088727</v>
+        <v>10.56807867088723</v>
       </c>
       <c r="J3">
-        <v>16.44106823203164</v>
+        <v>16.44106823203168</v>
       </c>
       <c r="K3">
-        <v>12.06345855488653</v>
+        <v>12.0634585548865</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.54325585970114</v>
+        <v>18.54325585970115</v>
       </c>
       <c r="C4">
-        <v>10.64294484306673</v>
+        <v>10.64294484306665</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.630316699794324</v>
+        <v>9.63031669979426</v>
       </c>
       <c r="F4">
-        <v>31.74011925845583</v>
+        <v>31.74011925845584</v>
       </c>
       <c r="G4">
-        <v>25.97904740138958</v>
+        <v>25.97904740138953</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.54126123800045</v>
+        <v>10.54126123800046</v>
       </c>
       <c r="J4">
-        <v>15.65772012391559</v>
+        <v>15.65772012391561</v>
       </c>
       <c r="K4">
-        <v>11.53434863022404</v>
+        <v>11.53434863022399</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13712940864048</v>
+        <v>18.13712940864053</v>
       </c>
       <c r="C5">
         <v>10.43183071494217</v>
@@ -535,25 +535,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.436293092129587</v>
+        <v>9.436293092129597</v>
       </c>
       <c r="F5">
         <v>31.1368237426678</v>
       </c>
       <c r="G5">
-        <v>25.67121085391078</v>
+        <v>25.67121085391066</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.53260633094215</v>
+        <v>10.53260633094199</v>
       </c>
       <c r="J5">
-        <v>15.3290010952433</v>
+        <v>15.32900109524334</v>
       </c>
       <c r="K5">
-        <v>11.31261920503369</v>
+        <v>11.31261920503366</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.0689666165661</v>
+        <v>18.06896661656618</v>
       </c>
       <c r="C6">
-        <v>10.39642476900864</v>
+        <v>10.39642476900861</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -576,22 +576,22 @@
         <v>9.403734810405956</v>
       </c>
       <c r="F6">
-        <v>31.03599380058968</v>
+        <v>31.03599380058972</v>
       </c>
       <c r="G6">
-        <v>25.62019401792066</v>
+        <v>25.6201940179207</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.53130155466319</v>
+        <v>10.53130155466322</v>
       </c>
       <c r="J6">
-        <v>15.27383960172139</v>
+        <v>15.27383960172141</v>
       </c>
       <c r="K6">
-        <v>11.27543069337572</v>
+        <v>11.27543069337569</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.53782722947128</v>
+        <v>18.5378272294713</v>
       </c>
       <c r="C7">
-        <v>10.64012114488268</v>
+        <v>10.64012114488246</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.627722843072057</v>
+        <v>9.627722843071972</v>
       </c>
       <c r="F7">
-        <v>31.73202702849044</v>
+        <v>31.73202702849039</v>
       </c>
       <c r="G7">
-        <v>25.97488930828679</v>
+        <v>25.9748893082867</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.54113553453708</v>
+        <v>10.54113553453718</v>
       </c>
       <c r="J7">
-        <v>15.65332555806189</v>
+        <v>15.65332555806186</v>
       </c>
       <c r="K7">
-        <v>11.53138312232532</v>
+        <v>11.53138312232523</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.50269331959468</v>
+        <v>20.50269331959465</v>
       </c>
       <c r="C8">
-        <v>11.66506130820422</v>
+        <v>11.66506130820434</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.5669969448092</v>
+        <v>10.56699694480914</v>
       </c>
       <c r="F8">
         <v>34.70640602813732</v>
       </c>
       <c r="G8">
-        <v>27.55304253290413</v>
+        <v>27.55304253290418</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.60495610432304</v>
+        <v>10.60495610432305</v>
       </c>
       <c r="J8">
         <v>17.24494092090026</v>
       </c>
       <c r="K8">
-        <v>12.60732711539818</v>
+        <v>12.60732711539816</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.9962203321411</v>
+        <v>23.99622033214104</v>
       </c>
       <c r="C9">
-        <v>13.50015533871529</v>
+        <v>13.50015533871537</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.23708585135363</v>
+        <v>12.23708585135364</v>
       </c>
       <c r="F9">
-        <v>40.3401659971508</v>
+        <v>40.34016599715077</v>
       </c>
       <c r="G9">
-        <v>30.68527419060942</v>
+        <v>30.6852741906094</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.81572451230249</v>
+        <v>10.81572451230246</v>
       </c>
       <c r="J9">
-        <v>20.07918090125839</v>
+        <v>20.07918090125834</v>
       </c>
       <c r="K9">
         <v>14.52964019291066</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.3592322009476</v>
+        <v>26.35923220094774</v>
       </c>
       <c r="C10">
-        <v>14.74966689700692</v>
+        <v>14.74966689700689</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.36491022767554</v>
+        <v>13.36491022767552</v>
       </c>
       <c r="F10">
-        <v>44.35375616713658</v>
+        <v>44.3537561671367</v>
       </c>
       <c r="G10">
-        <v>33.00832289779756</v>
+        <v>33.00832289779752</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.03522494902348</v>
+        <v>11.03522494902341</v>
       </c>
       <c r="J10">
-        <v>21.9989639599093</v>
+        <v>21.99896395990942</v>
       </c>
       <c r="K10">
-        <v>15.83378892694245</v>
+        <v>15.8337889269424</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.39392802867258</v>
+        <v>27.39392802867245</v>
       </c>
       <c r="C11">
-        <v>15.29881516138996</v>
+        <v>15.29881516139002</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.85792172407107</v>
+        <v>13.85792172407093</v>
       </c>
       <c r="F11">
-        <v>46.12513213735159</v>
+        <v>46.12513213735164</v>
       </c>
       <c r="G11">
-        <v>34.07147588274192</v>
+        <v>34.07147588274212</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.15215643985391</v>
+        <v>11.15215643985406</v>
       </c>
       <c r="J11">
-        <v>22.84022706692012</v>
+        <v>22.84022706692002</v>
       </c>
       <c r="K11">
-        <v>16.40534314947387</v>
+        <v>16.4053431494738</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.78032626597972</v>
+        <v>27.78032626597991</v>
       </c>
       <c r="C12">
-        <v>15.50420744491197</v>
+        <v>15.50420744491202</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.04187254555965</v>
+        <v>14.04187254555958</v>
       </c>
       <c r="F12">
-        <v>46.78862634243318</v>
+        <v>46.7886263424335</v>
       </c>
       <c r="G12">
-        <v>34.47525037503051</v>
+        <v>34.4752503750308</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.19917365021006</v>
+        <v>11.19917365021003</v>
       </c>
       <c r="J12">
-        <v>23.15448938725884</v>
+        <v>23.154489387259</v>
       </c>
       <c r="K12">
-        <v>16.61882897679082</v>
+        <v>16.61882897679077</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69734308199295</v>
+        <v>27.69734308199287</v>
       </c>
       <c r="C13">
-        <v>15.46008259096911</v>
+        <v>15.4600825909691</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.00237495606728</v>
+        <v>14.0023749560674</v>
       </c>
       <c r="F13">
-        <v>46.64604535638385</v>
+        <v>46.64604535638383</v>
       </c>
       <c r="G13">
-        <v>34.38823230132362</v>
+        <v>34.38823230132373</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.18892107513618</v>
+        <v>11.18892107513628</v>
       </c>
       <c r="J13">
-        <v>23.08699358209041</v>
+        <v>23.08699358209032</v>
       </c>
       <c r="K13">
-        <v>16.57297911453962</v>
+        <v>16.57297911453967</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.42582355276183</v>
+        <v>27.42582355276177</v>
       </c>
       <c r="C14">
-        <v>15.31576284807854</v>
+        <v>15.3157628480786</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.87310955057214</v>
+        <v>13.87310955057213</v>
       </c>
       <c r="F14">
-        <v>46.17986078162234</v>
+        <v>46.17986078162232</v>
       </c>
       <c r="G14">
-        <v>34.10466904359885</v>
+        <v>34.1046690435989</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.15596798260746</v>
+        <v>11.15596798260751</v>
       </c>
       <c r="J14">
-        <v>22.86616602067636</v>
+        <v>22.86616602067631</v>
       </c>
       <c r="K14">
-        <v>16.42296478022617</v>
+        <v>16.42296478022622</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.25881612136043</v>
+        <v>27.25881612136038</v>
       </c>
       <c r="C15">
-        <v>15.22703652577253</v>
+        <v>15.22703652577245</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.79357815935754</v>
+        <v>13.79357815935755</v>
       </c>
       <c r="F15">
-        <v>45.89337807368828</v>
+        <v>45.89337807368825</v>
       </c>
       <c r="G15">
-        <v>33.9311420571354</v>
+        <v>33.9311420571353</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.13614867903048</v>
+        <v>11.13614867903049</v>
       </c>
       <c r="J15">
-        <v>22.73035175660462</v>
+        <v>22.73035175660458</v>
       </c>
       <c r="K15">
-        <v>16.33069816300259</v>
+        <v>16.3306981630026</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.29083295941484</v>
+        <v>26.29083295941481</v>
       </c>
       <c r="C16">
-        <v>14.71340851929536</v>
+        <v>14.7134085192953</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.33229902190192</v>
+        <v>13.33229902190193</v>
       </c>
       <c r="F16">
-        <v>44.23694103323069</v>
+        <v>44.23694103323068</v>
       </c>
       <c r="G16">
-        <v>32.93899171263128</v>
+        <v>32.93899171263126</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.02795030802625</v>
+        <v>11.02795030802622</v>
       </c>
       <c r="J16">
-        <v>21.94336543694328</v>
+        <v>21.94336543694327</v>
       </c>
       <c r="K16">
-        <v>15.7960137916502</v>
+        <v>15.79601379165022</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.68694588919092</v>
+        <v>25.68694588919086</v>
       </c>
       <c r="C17">
-        <v>14.39352153389014</v>
+        <v>14.39352153389017</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.04427990271867</v>
+        <v>13.04427990271863</v>
       </c>
       <c r="F17">
-        <v>43.20718091389189</v>
+        <v>43.20718091389192</v>
       </c>
       <c r="G17">
-        <v>32.33212639939039</v>
+        <v>32.33212639939049</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.96614010033024</v>
+        <v>10.96614010033029</v>
       </c>
       <c r="J17">
-        <v>21.45256814866747</v>
+        <v>21.45256814866745</v>
       </c>
       <c r="K17">
-        <v>15.46255625275018</v>
+        <v>15.46255625275015</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33579282095563</v>
+        <v>25.33579282095562</v>
       </c>
       <c r="C18">
-        <v>14.20770360543563</v>
+        <v>14.20770360543551</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.87672308914612</v>
+        <v>12.87672308914611</v>
       </c>
       <c r="F18">
-        <v>42.60972877132699</v>
+        <v>42.609728771327</v>
       </c>
       <c r="G18">
-        <v>31.98365217240892</v>
+        <v>31.983652172409</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.93217768509225</v>
+        <v>10.93217768509235</v>
       </c>
       <c r="J18">
-        <v>21.16723686055519</v>
+        <v>21.16723686055517</v>
       </c>
       <c r="K18">
-        <v>15.26870503738939</v>
+        <v>15.26870503738929</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.21623300685678</v>
+        <v>25.21623300685675</v>
       </c>
       <c r="C19">
-        <v>14.14446907417862</v>
+        <v>14.14446907417867</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.81966165617223</v>
+        <v>12.81966165617226</v>
       </c>
       <c r="F19">
-        <v>42.40654057243603</v>
+        <v>42.40654057243601</v>
       </c>
       <c r="G19">
-        <v>31.86575802883279</v>
+        <v>31.86575802883275</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.92094342098866</v>
+        <v>10.92094342098865</v>
       </c>
       <c r="J19">
-        <v>21.07009826309582</v>
+        <v>21.07009826309578</v>
       </c>
       <c r="K19">
-        <v>15.20271253286492</v>
+        <v>15.20271253286501</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.75162282467882</v>
+        <v>25.75162282467871</v>
       </c>
       <c r="C20">
-        <v>14.42776175048382</v>
+        <v>14.42776175048377</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.07513528680294</v>
+        <v>13.07513528680298</v>
       </c>
       <c r="F20">
-        <v>43.31733125132962</v>
+        <v>43.31733125132944</v>
       </c>
       <c r="G20">
-        <v>32.39666682312232</v>
+        <v>32.3966668231221</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.97255348030871</v>
+        <v>10.97255348030869</v>
       </c>
       <c r="J20">
-        <v>21.505126673876</v>
+        <v>21.50512667387593</v>
       </c>
       <c r="K20">
-        <v>15.49826492475994</v>
+        <v>15.49826492475996</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.50571929508622</v>
+        <v>27.50571929508628</v>
       </c>
       <c r="C21">
-        <v>15.3582206324869</v>
+        <v>15.35822063248675</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.91115113717147</v>
+        <v>13.91115113717146</v>
       </c>
       <c r="F21">
-        <v>46.31698343524865</v>
+        <v>46.31698343524868</v>
       </c>
       <c r="G21">
-        <v>34.18792369299944</v>
+        <v>34.18792369299941</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.16557040553634</v>
+        <v>11.16557040553636</v>
       </c>
       <c r="J21">
-        <v>22.93114265487831</v>
+        <v>22.93114265487833</v>
       </c>
       <c r="K21">
-        <v>16.46710615962411</v>
+        <v>16.46710615962409</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.62074718303744</v>
+        <v>28.62074718303735</v>
       </c>
       <c r="C22">
-        <v>15.95154139699921</v>
+        <v>15.95154139699916</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.44163318323016</v>
+        <v>14.44163318323031</v>
       </c>
       <c r="F22">
-        <v>48.23528318326499</v>
+        <v>48.23528318326497</v>
       </c>
       <c r="G22">
-        <v>35.3657105091599</v>
+        <v>35.36571050915979</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.30782999071608</v>
+        <v>11.30782999071606</v>
       </c>
       <c r="J22">
-        <v>23.83820214358248</v>
+        <v>23.83820214358244</v>
       </c>
       <c r="K22">
-        <v>17.08320948974736</v>
+        <v>17.08320948974745</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.02837149255403</v>
+        <v>28.0283714925539</v>
       </c>
       <c r="C23">
-        <v>15.63614908865992</v>
+        <v>15.63614908866003</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.15990858005334</v>
+        <v>14.1599085800534</v>
       </c>
       <c r="F23">
-        <v>47.21509989149082</v>
+        <v>47.21509989149076</v>
       </c>
       <c r="G23">
-        <v>34.73633556622247</v>
+        <v>34.73633556622236</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.23032779255473</v>
+        <v>11.23032779255475</v>
       </c>
       <c r="J23">
-        <v>23.35625623564398</v>
+        <v>23.35625623564389</v>
       </c>
       <c r="K23">
-        <v>16.7558829391783</v>
+        <v>16.75588293917837</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>25.72239477612194</v>
       </c>
       <c r="C24">
-        <v>14.41228771527359</v>
+        <v>14.41228771527362</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.06119171651799</v>
+        <v>13.06119171651793</v>
       </c>
       <c r="F24">
-        <v>43.26754923425722</v>
+        <v>43.26754923425721</v>
       </c>
       <c r="G24">
-        <v>32.36748680540236</v>
+        <v>32.36748680540231</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.96964911229372</v>
+        <v>10.96964911229374</v>
       </c>
       <c r="J24">
         <v>21.48137484647859</v>
       </c>
       <c r="K24">
-        <v>15.48212771874397</v>
+        <v>15.48212771874393</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.08811416937854</v>
+        <v>23.08811416937855</v>
       </c>
       <c r="C25">
-        <v>13.02169676830251</v>
+        <v>13.02169676830248</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.80315037224722</v>
+        <v>11.80315037224719</v>
       </c>
       <c r="F25">
-        <v>38.8108541220006</v>
+        <v>38.81085412200049</v>
       </c>
       <c r="G25">
-        <v>29.834318608429</v>
+        <v>29.83431860842884</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.74831174853503</v>
+        <v>10.74831174853495</v>
       </c>
       <c r="J25">
-        <v>19.3419683063712</v>
+        <v>19.34196830637118</v>
       </c>
       <c r="K25">
-        <v>14.02912037043483</v>
+        <v>14.02912037043482</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.01021591182018</v>
+        <v>21.00983415415905</v>
       </c>
       <c r="C2">
-        <v>11.93069235220178</v>
+        <v>11.92831777266853</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.80968581122669</v>
+        <v>10.81997066114813</v>
       </c>
       <c r="F2">
-        <v>35.4882059986127</v>
+        <v>35.46647834734242</v>
       </c>
       <c r="G2">
-        <v>27.98339074489835</v>
+        <v>26.78076670605022</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.00450685793495</v>
       </c>
       <c r="I2">
-        <v>10.62761206256838</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17.65636157092654</v>
+        <v>10.6120857044042</v>
       </c>
       <c r="K2">
-        <v>12.88596972596919</v>
+        <v>17.65526292507949</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.89289801392724</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51061040664672</v>
+        <v>19.51046493916808</v>
       </c>
       <c r="C3">
-        <v>11.14684643205781</v>
+        <v>11.14490274613918</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.09265800824712</v>
+        <v>10.10218133644059</v>
       </c>
       <c r="F3">
-        <v>33.19363089846978</v>
+        <v>33.17329427306659</v>
       </c>
       <c r="G3">
-        <v>26.73822679587338</v>
+        <v>25.29833769540994</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.75932507150852</v>
       </c>
       <c r="I3">
-        <v>10.56807867088723</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.44106823203168</v>
+        <v>10.55398833213725</v>
       </c>
       <c r="K3">
-        <v>12.0634585548865</v>
+        <v>16.44028014696616</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.06991680972477</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.54325585970115</v>
+        <v>18.54324634921105</v>
       </c>
       <c r="C4">
-        <v>10.64294484306665</v>
+        <v>10.641273701478</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.63031669979426</v>
+        <v>9.639340765382977</v>
       </c>
       <c r="F4">
-        <v>31.74011925845584</v>
+        <v>31.72067180722613</v>
       </c>
       <c r="G4">
-        <v>25.97904740138953</v>
+        <v>24.37948205455097</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26.00024219117947</v>
       </c>
       <c r="I4">
-        <v>10.54126123800046</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>15.65772012391561</v>
+        <v>10.52805228052518</v>
       </c>
       <c r="K4">
-        <v>11.53434863022399</v>
+        <v>15.65712200826218</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.54049491424625</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13712940864053</v>
+        <v>18.13717326899235</v>
       </c>
       <c r="C5">
-        <v>10.43183071494217</v>
+        <v>10.43027305097917</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.436293092129597</v>
+        <v>9.445105589131872</v>
       </c>
       <c r="F5">
-        <v>31.1368237426678</v>
+        <v>31.11774798513551</v>
       </c>
       <c r="G5">
-        <v>25.67121085391066</v>
+        <v>24.00312144741422</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.69247219722702</v>
       </c>
       <c r="I5">
-        <v>10.53260633094199</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>15.32900109524334</v>
+        <v>10.51975627328486</v>
       </c>
       <c r="K5">
-        <v>11.31261920503366</v>
+        <v>15.32848057285296</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.31863248310736</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06896661656618</v>
+        <v>18.06901922317442</v>
       </c>
       <c r="C6">
-        <v>10.39642476900861</v>
+        <v>10.39488610578296</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.403734810405956</v>
+        <v>9.412511681601153</v>
       </c>
       <c r="F6">
-        <v>31.03599380058972</v>
+        <v>31.01698034175821</v>
       </c>
       <c r="G6">
-        <v>25.6201940179207</v>
+        <v>23.94052027814724</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.64146805912349</v>
       </c>
       <c r="I6">
-        <v>10.53130155466322</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>15.27383960172141</v>
+        <v>10.51851107145628</v>
       </c>
       <c r="K6">
-        <v>11.27543069337569</v>
+        <v>15.27333198478869</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.281421530693</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.5378272294713</v>
+        <v>18.53781844667443</v>
       </c>
       <c r="C7">
-        <v>10.64012114488246</v>
+        <v>10.63845152337555</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.627722843071972</v>
+        <v>9.636744088446353</v>
       </c>
       <c r="F7">
-        <v>31.73202702849039</v>
+        <v>31.71258455153437</v>
       </c>
       <c r="G7">
-        <v>25.9748893082867</v>
+        <v>24.3744136948994</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.99608488527363</v>
       </c>
       <c r="I7">
-        <v>10.54113553453718</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>15.65332555806186</v>
+        <v>10.52793141860596</v>
       </c>
       <c r="K7">
-        <v>11.53138312232523</v>
+        <v>15.65272848766507</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.53752763638556</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.50269331959465</v>
+        <v>20.50239510069092</v>
       </c>
       <c r="C8">
-        <v>11.66506130820434</v>
+        <v>11.66283389069387</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.56699694480914</v>
+        <v>10.57702571811346</v>
       </c>
       <c r="F8">
-        <v>34.70640602813732</v>
+        <v>34.68515105279575</v>
       </c>
       <c r="G8">
-        <v>27.55304253290418</v>
+        <v>26.27154063338957</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.57413035888518</v>
       </c>
       <c r="I8">
-        <v>10.60495610432305</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>17.24494092090026</v>
+        <v>10.58992482773534</v>
       </c>
       <c r="K8">
-        <v>12.60732711539816</v>
+        <v>17.24394972540663</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.61409819311229</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.99622033214104</v>
+        <v>23.99526771368209</v>
       </c>
       <c r="C9">
-        <v>13.50015533871537</v>
+        <v>13.49687888762513</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.23708585135364</v>
+        <v>12.24884417599711</v>
       </c>
       <c r="F9">
-        <v>40.34016599715077</v>
+        <v>40.31556076910508</v>
       </c>
       <c r="G9">
-        <v>30.6852741906094</v>
+        <v>29.91724690953428</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.70698769104024</v>
       </c>
       <c r="I9">
-        <v>10.81572451230246</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>20.07918090125834</v>
+        <v>10.79711847944317</v>
       </c>
       <c r="K9">
-        <v>14.52964019291066</v>
+        <v>20.07739399746404</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>14.53745331969486</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.35923220094774</v>
+        <v>26.35772115645039</v>
       </c>
       <c r="C10">
-        <v>14.74966689700689</v>
+        <v>14.74562001584222</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.36491022767552</v>
+        <v>13.37779451942384</v>
       </c>
       <c r="F10">
-        <v>44.3537561671367</v>
+        <v>44.32684902851672</v>
       </c>
       <c r="G10">
-        <v>33.00832289779752</v>
+        <v>32.54989433359019</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.03097886116864</v>
       </c>
       <c r="I10">
-        <v>11.03522494902341</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.99896395990942</v>
+        <v>11.01401569233149</v>
       </c>
       <c r="K10">
-        <v>15.8337889269424</v>
+        <v>21.99655204303818</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>15.84225020846008</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.39392802867245</v>
+        <v>27.39213893918727</v>
       </c>
       <c r="C11">
-        <v>15.29881516139002</v>
+        <v>15.29441111210727</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.85792172407093</v>
+        <v>13.87128749667268</v>
       </c>
       <c r="F11">
-        <v>46.12513213735164</v>
+        <v>46.09718708346414</v>
       </c>
       <c r="G11">
-        <v>34.07147588274212</v>
+        <v>33.73974970865891</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.09465847922563</v>
       </c>
       <c r="I11">
-        <v>11.15215643985406</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>22.84022706692002</v>
+        <v>11.1297723183873</v>
       </c>
       <c r="K11">
-        <v>16.4053431494738</v>
+        <v>22.83751503205455</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>16.41407232031917</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.78032626597991</v>
+        <v>27.77842767887653</v>
       </c>
       <c r="C12">
-        <v>15.50420744491202</v>
+        <v>15.49966652186643</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.04187254555958</v>
+        <v>14.05541624626638</v>
       </c>
       <c r="F12">
-        <v>46.7886263424335</v>
+        <v>46.76028845171358</v>
       </c>
       <c r="G12">
-        <v>34.4752503750308</v>
+        <v>34.18953220233348</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>34.49864585462962</v>
       </c>
       <c r="I12">
-        <v>11.19917365021003</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>23.154489387259</v>
+        <v>11.17634633560967</v>
       </c>
       <c r="K12">
-        <v>16.61882897679077</v>
+        <v>23.15166072279563</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>16.62765553191437</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69734308199287</v>
+        <v>27.69546827805547</v>
       </c>
       <c r="C13">
-        <v>15.4600825909691</v>
+        <v>15.4555712299329</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.0023749560674</v>
+        <v>14.01588053235351</v>
       </c>
       <c r="F13">
-        <v>46.64604535638383</v>
+        <v>46.61779208172097</v>
       </c>
       <c r="G13">
-        <v>34.38823230132373</v>
+        <v>34.09269210147015</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>34.41158134430356</v>
       </c>
       <c r="I13">
-        <v>11.18892107513628</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>23.08699358209032</v>
+        <v>11.16618912923351</v>
       </c>
       <c r="K13">
-        <v>16.57297911453967</v>
+        <v>23.0841901812323</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>16.58178488028197</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.42582355276177</v>
+        <v>27.42402554406914</v>
       </c>
       <c r="C14">
-        <v>15.3157628480786</v>
+        <v>15.31134757477434</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.87310955057213</v>
+        <v>13.8864900495532</v>
       </c>
       <c r="F14">
-        <v>46.17986078162232</v>
+        <v>46.15188341211253</v>
       </c>
       <c r="G14">
-        <v>34.1046690435989</v>
+        <v>33.7767671062308</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34.12786888800787</v>
       </c>
       <c r="I14">
-        <v>11.15596798260751</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>22.86616602067631</v>
+        <v>11.13354736337953</v>
       </c>
       <c r="K14">
-        <v>16.42296478022622</v>
+        <v>22.86344445491427</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>16.43170204554123</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.25881612136038</v>
+        <v>27.25706457886284</v>
       </c>
       <c r="C15">
-        <v>15.22703652577245</v>
+        <v>15.22267987637438</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.79357815935755</v>
+        <v>13.80688147224225</v>
       </c>
       <c r="F15">
-        <v>45.89337807368825</v>
+        <v>45.86556969256712</v>
       </c>
       <c r="G15">
-        <v>33.9311420571353</v>
+        <v>33.58316284025111</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>33.95425224704179</v>
       </c>
       <c r="I15">
-        <v>11.13614867903049</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>22.73035175660458</v>
+        <v>11.11391898791227</v>
       </c>
       <c r="K15">
-        <v>16.3306981630026</v>
+        <v>22.72767990562544</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>16.33939293477889</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.29083295941481</v>
+        <v>26.28933954154828</v>
       </c>
       <c r="C16">
-        <v>14.7134085192953</v>
+        <v>14.70938479116027</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.33229902190193</v>
+        <v>13.34515123176458</v>
       </c>
       <c r="F16">
-        <v>44.23694103323068</v>
+        <v>44.21010181920465</v>
       </c>
       <c r="G16">
-        <v>32.93899171263126</v>
+        <v>32.47200344132407</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>32.96161517686455</v>
       </c>
       <c r="I16">
-        <v>11.02795030802622</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>21.94336543694327</v>
+        <v>11.00681805127055</v>
       </c>
       <c r="K16">
-        <v>15.79601379165022</v>
+        <v>21.94097275781658</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>15.80445700906438</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.68694588919086</v>
+        <v>25.68560418181555</v>
       </c>
       <c r="C17">
-        <v>14.39352153389017</v>
+        <v>14.38969988953219</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.04427990271863</v>
+        <v>13.05684752809305</v>
       </c>
       <c r="F17">
-        <v>43.20718091389192</v>
+        <v>43.18093788274411</v>
       </c>
       <c r="G17">
-        <v>32.33212639939049</v>
+        <v>31.7885501683276</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.35447591433164</v>
       </c>
       <c r="I17">
-        <v>10.96614010033029</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>21.45256814866745</v>
+        <v>10.94568374624179</v>
       </c>
       <c r="K17">
-        <v>15.46255625275015</v>
+        <v>21.45034222018358</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>15.47083813111273</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33579282095562</v>
+        <v>25.33453616646048</v>
       </c>
       <c r="C18">
-        <v>14.20770360543551</v>
+        <v>14.20399760879226</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.87672308914611</v>
+        <v>12.88912413714885</v>
       </c>
       <c r="F18">
-        <v>42.609728771327</v>
+        <v>42.58382959739966</v>
       </c>
       <c r="G18">
-        <v>31.983652172409</v>
+        <v>31.39468972669238</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.00585337232972</v>
       </c>
       <c r="I18">
-        <v>10.93217768509235</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>21.16723686055517</v>
+        <v>10.91211095264588</v>
       </c>
       <c r="K18">
-        <v>15.26870503738929</v>
+        <v>21.16510540488894</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>15.27689159406971</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.21623300685675</v>
+        <v>25.21500479130355</v>
       </c>
       <c r="C19">
-        <v>14.14446907417867</v>
+        <v>14.14080215175085</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.81966165617226</v>
+        <v>12.83200580621608</v>
       </c>
       <c r="F19">
-        <v>42.40654057243601</v>
+        <v>42.38075801642236</v>
       </c>
       <c r="G19">
-        <v>31.86575802883275</v>
+        <v>31.26119760778189</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>31.88791061970973</v>
       </c>
       <c r="I19">
-        <v>10.92094342098865</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>21.07009826309578</v>
+        <v>10.90100874395863</v>
       </c>
       <c r="K19">
-        <v>15.20271253286501</v>
+        <v>21.06799856698161</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>15.2108663865258</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.75162282467871</v>
+        <v>25.75026520085635</v>
       </c>
       <c r="C20">
-        <v>14.42776175048377</v>
+        <v>14.42391865901062</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.07513528680298</v>
+        <v>13.08773350575265</v>
       </c>
       <c r="F20">
-        <v>43.31733125132944</v>
+        <v>43.29102466479065</v>
       </c>
       <c r="G20">
-        <v>32.3966668231221</v>
+        <v>31.86138124589706</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.41904454716448</v>
       </c>
       <c r="I20">
-        <v>10.97255348030869</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>21.50512667387593</v>
+        <v>10.95202508346287</v>
       </c>
       <c r="K20">
-        <v>15.49826492475996</v>
+        <v>21.50288314804142</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>15.50656424029011</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.50571929508628</v>
+        <v>27.50389885078202</v>
       </c>
       <c r="C21">
-        <v>15.35822063248675</v>
+        <v>15.35377718569358</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.91115113717146</v>
+        <v>13.92456849372798</v>
       </c>
       <c r="F21">
-        <v>46.31698343524868</v>
+        <v>46.28892503045036</v>
       </c>
       <c r="G21">
-        <v>34.18792369299941</v>
+        <v>33.8695801581214</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.21116700043411</v>
       </c>
       <c r="I21">
-        <v>11.16557040553636</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>22.93114265487833</v>
+        <v>11.14305829330432</v>
       </c>
       <c r="K21">
-        <v>16.46710615962409</v>
+        <v>22.92839713939581</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>16.47586365708572</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.62074718303735</v>
+        <v>28.61859925817109</v>
       </c>
       <c r="C22">
-        <v>15.95154139699916</v>
+        <v>15.94669573956186</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.44163318323031</v>
+        <v>14.45556024641792</v>
       </c>
       <c r="F22">
-        <v>48.23528318326497</v>
+        <v>48.20608032236326</v>
       </c>
       <c r="G22">
-        <v>35.36571050915979</v>
+        <v>35.17769370589959</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.3895976657214</v>
       </c>
       <c r="I22">
-        <v>11.30782999071606</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>23.83820214358244</v>
+        <v>11.28403145141113</v>
       </c>
       <c r="K22">
-        <v>17.08320948974745</v>
+        <v>23.83511073875648</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>17.09224264549268</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.0283714925539</v>
+        <v>28.02640093080435</v>
       </c>
       <c r="C23">
-        <v>15.63614908866003</v>
+        <v>15.63151924675264</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.1599085800534</v>
+        <v>14.17356595048256</v>
       </c>
       <c r="F23">
-        <v>47.21509989149076</v>
+        <v>47.18650824276789</v>
       </c>
       <c r="G23">
-        <v>34.73633556622236</v>
+        <v>34.47978705271908</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>34.75987214999921</v>
       </c>
       <c r="I23">
-        <v>11.23032779255475</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>23.35625623564389</v>
+        <v>11.20721482132291</v>
       </c>
       <c r="K23">
-        <v>16.75588293917837</v>
+        <v>23.35335133900636</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>16.76477122334034</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.72239477612194</v>
+        <v>25.72104435482163</v>
       </c>
       <c r="C24">
-        <v>14.41228771527362</v>
+        <v>14.40845432165242</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.06119171651793</v>
+        <v>13.07377611335383</v>
       </c>
       <c r="F24">
-        <v>43.26754923425721</v>
+        <v>43.24127137758862</v>
       </c>
       <c r="G24">
-        <v>32.36748680540231</v>
+        <v>31.82845724791376</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.38985174747473</v>
       </c>
       <c r="I24">
-        <v>10.96964911229374</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>21.48137484647859</v>
+        <v>10.94915328277704</v>
       </c>
       <c r="K24">
-        <v>15.48212771874393</v>
+        <v>21.4791392806974</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15.49041915891014</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.08811416937855</v>
+        <v>23.08735014535648</v>
       </c>
       <c r="C25">
-        <v>13.02169676830248</v>
+        <v>13.01870197638813</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.80315037224719</v>
+        <v>11.81446652729567</v>
       </c>
       <c r="F25">
-        <v>38.81085412200049</v>
+        <v>38.78711117113617</v>
       </c>
       <c r="G25">
-        <v>29.83431860842884</v>
+        <v>28.93939779356748</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.85577582055033</v>
       </c>
       <c r="I25">
-        <v>10.74831174853495</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>19.34196830637118</v>
+        <v>10.73067017058997</v>
       </c>
       <c r="K25">
-        <v>14.02912037043482</v>
+        <v>19.34040165178626</v>
       </c>
       <c r="L25">
+        <v>14.0366718450017</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.00983415415905</v>
+        <v>27.22560932572408</v>
       </c>
       <c r="C2">
-        <v>11.92831777266853</v>
+        <v>17.51199870937476</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.81997066114813</v>
+        <v>7.075548572304149</v>
       </c>
       <c r="F2">
-        <v>35.46647834734242</v>
+        <v>40.92725525416</v>
       </c>
       <c r="G2">
-        <v>26.78076670605022</v>
+        <v>2.114575062619726</v>
       </c>
       <c r="H2">
-        <v>28.00450685793495</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.6120857044042</v>
+        <v>6.559879653780539</v>
       </c>
       <c r="K2">
-        <v>17.65526292507949</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.89289801392724</v>
+        <v>5.775662244992041</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.916119684224</v>
+      </c>
+      <c r="N2">
+        <v>15.66329442215331</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51046493916808</v>
+        <v>25.60903997953268</v>
       </c>
       <c r="C3">
-        <v>11.14490274613918</v>
+        <v>16.22055268077156</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.10218133644059</v>
+        <v>6.784334663607397</v>
       </c>
       <c r="F3">
-        <v>33.17329427306659</v>
+        <v>39.63037373271487</v>
       </c>
       <c r="G3">
-        <v>25.29833769540994</v>
+        <v>2.127988976090621</v>
       </c>
       <c r="H3">
-        <v>26.75932507150852</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.55398833213725</v>
+        <v>6.65172366322159</v>
       </c>
       <c r="K3">
-        <v>16.44028014696616</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.06991680972477</v>
+        <v>5.740584595431391</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.35019213155362</v>
+      </c>
+      <c r="N3">
+        <v>15.83876989157038</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.54324634921105</v>
+        <v>24.59114763139137</v>
       </c>
       <c r="C4">
-        <v>10.641273701478</v>
+        <v>15.39151666300128</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.639340765382977</v>
+        <v>6.603233641497407</v>
       </c>
       <c r="F4">
-        <v>31.72067180722613</v>
+        <v>38.85240306609195</v>
       </c>
       <c r="G4">
-        <v>24.37948205455097</v>
+        <v>2.136384492506164</v>
       </c>
       <c r="H4">
-        <v>26.00024219117947</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.52805228052518</v>
+        <v>6.709536155999625</v>
       </c>
       <c r="K4">
-        <v>15.65712200826218</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>11.54049491424625</v>
+        <v>5.721186607694598</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.00396703252119</v>
+      </c>
+      <c r="N4">
+        <v>15.95155084804589</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13717326899235</v>
+        <v>24.17025229492726</v>
       </c>
       <c r="C5">
-        <v>10.43027305097917</v>
+        <v>15.04439011500426</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.445105589131872</v>
+        <v>6.528811068018865</v>
       </c>
       <c r="F5">
-        <v>31.11774798513551</v>
+        <v>38.54009024242428</v>
       </c>
       <c r="G5">
-        <v>24.00312144741422</v>
+        <v>2.139849825598237</v>
       </c>
       <c r="H5">
-        <v>25.69247219722702</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.51975627328486</v>
+        <v>6.733460067257267</v>
       </c>
       <c r="K5">
-        <v>15.32848057285296</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>11.31863248310736</v>
+        <v>5.713814759319542</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.86332854260071</v>
+      </c>
+      <c r="N5">
+        <v>15.99873659707908</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06901922317442</v>
+        <v>24.10000475894629</v>
       </c>
       <c r="C6">
-        <v>10.39488610578296</v>
+        <v>14.98618321324927</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.412511681601153</v>
+        <v>6.516414576377557</v>
       </c>
       <c r="F6">
-        <v>31.01698034175821</v>
+        <v>38.48851947318693</v>
       </c>
       <c r="G6">
-        <v>23.94052027814724</v>
+        <v>2.140428015610262</v>
       </c>
       <c r="H6">
-        <v>25.64146805912349</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.51851107145628</v>
+        <v>6.737454886204223</v>
       </c>
       <c r="K6">
-        <v>15.27333198478869</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>11.281421530693</v>
+        <v>5.712622713991513</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.84000723022306</v>
+      </c>
+      <c r="N6">
+        <v>16.00664477408172</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.53781844667443</v>
+        <v>24.58549553659214</v>
       </c>
       <c r="C7">
-        <v>10.63845152337555</v>
+        <v>15.38687306610898</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.636744088446353</v>
+        <v>6.602232523710873</v>
       </c>
       <c r="F7">
-        <v>31.71258455153437</v>
+        <v>38.8481718457237</v>
       </c>
       <c r="G7">
-        <v>24.3744136948994</v>
+        <v>2.136431043605308</v>
       </c>
       <c r="H7">
-        <v>25.99608488527363</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.52793141860596</v>
+        <v>6.709857314341915</v>
       </c>
       <c r="K7">
-        <v>15.65272848766507</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>11.53752763638556</v>
+        <v>5.721085036941475</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.00206831213421</v>
+      </c>
+      <c r="N7">
+        <v>15.95218229395347</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.50239510069092</v>
+        <v>26.67359753065301</v>
       </c>
       <c r="C8">
-        <v>11.66283389069387</v>
+        <v>17.07406107325653</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.57702571811346</v>
+        <v>6.975582674645836</v>
       </c>
       <c r="F8">
-        <v>34.68515105279575</v>
+        <v>40.47634475004755</v>
       </c>
       <c r="G8">
-        <v>26.27154063338957</v>
+        <v>2.11916965796333</v>
       </c>
       <c r="H8">
-        <v>27.57413035888518</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.58992482773534</v>
+        <v>6.591257334095883</v>
       </c>
       <c r="K8">
-        <v>17.24394972540663</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>12.61409819311229</v>
+        <v>5.763120213865229</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.72080086799546</v>
+      </c>
+      <c r="N8">
+        <v>15.72272640815784</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.99526771368209</v>
+        <v>30.56134152253683</v>
       </c>
       <c r="C9">
-        <v>13.49687888762513</v>
+        <v>20.10726780753147</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.24884417599711</v>
+        <v>7.692352920081818</v>
       </c>
       <c r="F9">
-        <v>40.31556076910508</v>
+        <v>43.81182981882066</v>
       </c>
       <c r="G9">
-        <v>29.91724690953428</v>
+        <v>2.086380423492169</v>
       </c>
       <c r="H9">
-        <v>30.70698769104024</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.79711847944317</v>
+        <v>6.36962737631373</v>
       </c>
       <c r="K9">
-        <v>20.07739399746404</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>14.53745331969486</v>
+        <v>5.862782276689197</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.13562189080492</v>
+      </c>
+      <c r="N9">
+        <v>15.3149259045614</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.35772115645039</v>
+        <v>33.32855357707815</v>
       </c>
       <c r="C10">
-        <v>14.74562001584222</v>
+        <v>22.18532188396282</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.37779451942384</v>
+        <v>8.214900638535623</v>
       </c>
       <c r="F10">
-        <v>44.32684902851672</v>
+        <v>46.35023698887714</v>
       </c>
       <c r="G10">
-        <v>32.54989433359019</v>
+        <v>2.062612506568404</v>
       </c>
       <c r="H10">
-        <v>33.03097886116864</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.01401569233149</v>
+        <v>6.213101214271436</v>
       </c>
       <c r="K10">
-        <v>21.99655204303818</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>15.84225020846008</v>
+        <v>5.94691975055989</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.17455967393182</v>
+      </c>
+      <c r="N10">
+        <v>15.04475209396025</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.39213893918727</v>
+        <v>34.6349662469113</v>
       </c>
       <c r="C11">
-        <v>15.29441111210727</v>
+        <v>23.10261958226258</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.87128749667268</v>
+        <v>8.4533634772075</v>
       </c>
       <c r="F11">
-        <v>46.09718708346414</v>
+        <v>47.52590806502022</v>
       </c>
       <c r="G11">
-        <v>33.73974970865891</v>
+        <v>2.05178401715888</v>
       </c>
       <c r="H11">
-        <v>34.09465847922563</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.1297723183873</v>
+        <v>6.14322122920116</v>
       </c>
       <c r="K11">
-        <v>22.83751503205455</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>16.41407232031917</v>
+        <v>5.987680187669021</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17.64702349453906</v>
+      </c>
+      <c r="N11">
+        <v>14.92931805896326</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.77842767887653</v>
+        <v>35.12471241586578</v>
       </c>
       <c r="C12">
-        <v>15.49966652186643</v>
+        <v>23.446400343876</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.05541624626638</v>
+        <v>8.54394589168003</v>
       </c>
       <c r="F12">
-        <v>46.76028845171358</v>
+        <v>47.97439927452103</v>
       </c>
       <c r="G12">
-        <v>34.18953220233348</v>
+        <v>2.047672705309163</v>
       </c>
       <c r="H12">
-        <v>34.49864585462962</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.17634633560967</v>
+        <v>6.116950948530602</v>
       </c>
       <c r="K12">
-        <v>23.15166072279563</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>16.62765553191437</v>
+        <v>6.00348431701066</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>17.82596120872463</v>
+      </c>
+      <c r="N12">
+        <v>14.8867953583686</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69546827805547</v>
+        <v>35.01944951049182</v>
       </c>
       <c r="C13">
-        <v>15.4555712299329</v>
+        <v>23.37251231192364</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.01588053235351</v>
+        <v>8.524421652412217</v>
       </c>
       <c r="F13">
-        <v>46.61779208172097</v>
+        <v>47.87765651828156</v>
       </c>
       <c r="G13">
-        <v>34.09269210147015</v>
+        <v>2.048558779214985</v>
       </c>
       <c r="H13">
-        <v>34.41158134430356</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.16618912923351</v>
+        <v>6.122600128272722</v>
       </c>
       <c r="K13">
-        <v>23.0841901812323</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>16.58178488028197</v>
+        <v>6.000063988961614</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17.78742133529875</v>
+      </c>
+      <c r="N13">
+        <v>14.89589838016558</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.42402554406914</v>
+        <v>34.67535456926441</v>
       </c>
       <c r="C14">
-        <v>15.31134757477434</v>
+        <v>23.13097155571025</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.8864900495532</v>
+        <v>8.46080897373408</v>
       </c>
       <c r="F14">
-        <v>46.15188341211253</v>
+        <v>47.56273771327494</v>
       </c>
       <c r="G14">
-        <v>33.7767671062308</v>
+        <v>2.051446046673808</v>
       </c>
       <c r="H14">
-        <v>34.12786888800787</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.13354736337953</v>
+        <v>6.141056091713256</v>
       </c>
       <c r="K14">
-        <v>22.86344445491427</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>16.43170204554123</v>
+        <v>5.988972931093897</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17.66174384154243</v>
+      </c>
+      <c r="N14">
+        <v>14.925795102885</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.25706457886284</v>
+        <v>34.46395477121676</v>
       </c>
       <c r="C15">
-        <v>15.22267987637438</v>
+        <v>22.98256917781057</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.80688147224225</v>
+        <v>8.421886842214867</v>
       </c>
       <c r="F15">
-        <v>45.86556969256712</v>
+        <v>47.37027977531188</v>
       </c>
       <c r="G15">
-        <v>33.58316284025111</v>
+        <v>2.053212901532005</v>
       </c>
       <c r="H15">
-        <v>33.95425224704179</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.11391898791227</v>
+        <v>6.152385984623039</v>
       </c>
       <c r="K15">
-        <v>22.72767990562544</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>16.33939293477889</v>
+        <v>5.982227785702812</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17.58476836885523</v>
+      </c>
+      <c r="N15">
+        <v>14.94426646401673</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.28933954154828</v>
+        <v>33.24245567914319</v>
       </c>
       <c r="C16">
-        <v>14.70938479116027</v>
+        <v>22.12484734726572</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.34515123176458</v>
+        <v>8.199345682985907</v>
       </c>
       <c r="F16">
-        <v>44.21010181920465</v>
+        <v>46.2738464874831</v>
       </c>
       <c r="G16">
-        <v>32.47200344132407</v>
+        <v>2.063319152487887</v>
       </c>
       <c r="H16">
-        <v>32.96161517686455</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.00681805127055</v>
+        <v>6.217694706500004</v>
       </c>
       <c r="K16">
-        <v>21.94097275781658</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>15.80445700906438</v>
+        <v>5.944306913645014</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17.14368298590234</v>
+      </c>
+      <c r="N16">
+        <v>15.05245564896501</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.68560418181555</v>
+        <v>32.50730606339459</v>
       </c>
       <c r="C17">
-        <v>14.38969988953219</v>
+        <v>21.59178494788087</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.05684752809305</v>
+        <v>8.063128959351019</v>
       </c>
       <c r="F17">
-        <v>43.18093788274411</v>
+        <v>45.60674311723235</v>
       </c>
       <c r="G17">
-        <v>31.7885501683276</v>
+        <v>2.069509215173028</v>
       </c>
       <c r="H17">
-        <v>32.35447591433164</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.94568374624179</v>
+        <v>6.258098423711034</v>
       </c>
       <c r="K17">
-        <v>21.45034222018358</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>15.47083813111273</v>
+        <v>5.921687836385722</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.87307140933993</v>
+      </c>
+      <c r="N17">
+        <v>15.12081457774232</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33453616646048</v>
+        <v>32.10012617631645</v>
       </c>
       <c r="C18">
-        <v>14.20399760879226</v>
+        <v>21.28251364471161</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.88912413714885</v>
+        <v>7.984839226009348</v>
       </c>
       <c r="F18">
-        <v>42.58382959739966</v>
+        <v>45.22498997806178</v>
       </c>
       <c r="G18">
-        <v>31.39468972669238</v>
+        <v>2.073068613338986</v>
       </c>
       <c r="H18">
-        <v>32.00585337232972</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.91211095264588</v>
+        <v>6.281461966045589</v>
       </c>
       <c r="K18">
-        <v>21.16510540488894</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>15.27689159406971</v>
+        <v>5.908911100346137</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.71740265174941</v>
+      </c>
+      <c r="N18">
+        <v>15.16082773434319</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.21500479130355</v>
+        <v>31.96184020499533</v>
       </c>
       <c r="C19">
-        <v>14.14080215175085</v>
+        <v>21.17732888352663</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.83200580621608</v>
+        <v>7.958337019387208</v>
       </c>
       <c r="F19">
-        <v>42.38075801642236</v>
+        <v>45.09606281547806</v>
       </c>
       <c r="G19">
-        <v>31.26119760778189</v>
+        <v>2.074273835633473</v>
       </c>
       <c r="H19">
-        <v>31.88791061970973</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.90100874395863</v>
+        <v>6.289393849881446</v>
       </c>
       <c r="K19">
-        <v>21.06799856698161</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>15.2108663865258</v>
+        <v>5.904624850244308</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.66469172406347</v>
+      </c>
+      <c r="N19">
+        <v>15.17449169339841</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.75026520085635</v>
+        <v>32.58246724774943</v>
       </c>
       <c r="C20">
-        <v>14.42391865901062</v>
+        <v>21.6488034317648</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.08773350575265</v>
+        <v>8.077622264998425</v>
       </c>
       <c r="F20">
-        <v>43.29102466479065</v>
+        <v>45.67755426573598</v>
       </c>
       <c r="G20">
-        <v>31.86138124589706</v>
+        <v>2.068850429049406</v>
       </c>
       <c r="H20">
-        <v>32.41904454716448</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.95202508346287</v>
+        <v>6.253784508487071</v>
       </c>
       <c r="K20">
-        <v>21.50288314804142</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>15.50656424029011</v>
+        <v>5.924071469007284</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.90188035933491</v>
+      </c>
+      <c r="N20">
+        <v>15.11346496736389</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.50389885078202</v>
+        <v>34.77655431375361</v>
       </c>
       <c r="C21">
-        <v>15.35377718569358</v>
+        <v>23.20201115930363</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.92456849372798</v>
+        <v>8.479484344980936</v>
       </c>
       <c r="F21">
-        <v>46.28892503045036</v>
+        <v>47.6551448470396</v>
       </c>
       <c r="G21">
-        <v>33.8695801581214</v>
+        <v>2.050598353332413</v>
       </c>
       <c r="H21">
-        <v>34.21116700043411</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.14305829330432</v>
+        <v>6.135629892156615</v>
       </c>
       <c r="K21">
-        <v>22.92839713939581</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>16.47586365708572</v>
+        <v>5.992220522651746</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17.69865704203355</v>
+      </c>
+      <c r="N21">
+        <v>14.91698038637093</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.61859925817109</v>
+        <v>36.19334789979731</v>
       </c>
       <c r="C22">
-        <v>15.94669573956186</v>
+        <v>24.19651766395767</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.45556024641792</v>
+        <v>8.743875499481321</v>
       </c>
       <c r="F22">
-        <v>48.20608032236326</v>
+        <v>48.96701765982695</v>
       </c>
       <c r="G22">
-        <v>35.17769370589959</v>
+        <v>2.038601676728223</v>
       </c>
       <c r="H22">
-        <v>35.3895976657214</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.28403145141113</v>
+        <v>6.059530699300875</v>
       </c>
       <c r="K22">
-        <v>23.83511073875648</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>17.09224264549268</v>
+        <v>6.038918334279731</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18.21960569178209</v>
+      </c>
+      <c r="N22">
+        <v>14.79557202858179</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.02640093080435</v>
+        <v>35.43962805384665</v>
       </c>
       <c r="C23">
-        <v>15.63151924675264</v>
+        <v>23.66744854991099</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.17356595048256</v>
+        <v>8.602537262789587</v>
       </c>
       <c r="F23">
-        <v>47.18650824276789</v>
+        <v>48.26494434632498</v>
       </c>
       <c r="G23">
-        <v>34.47978705271908</v>
+        <v>2.045013899300994</v>
       </c>
       <c r="H23">
-        <v>34.75987214999921</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.20721482132291</v>
+        <v>6.100042016570996</v>
       </c>
       <c r="K23">
-        <v>23.35335133900636</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>16.76477122334034</v>
+        <v>6.013792778498874</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17.9415177484757</v>
+      </c>
+      <c r="N23">
+        <v>14.85968441149246</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.72104435482163</v>
+        <v>32.54849498219573</v>
       </c>
       <c r="C24">
-        <v>14.40845432165242</v>
+        <v>21.62303415010607</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.07377611335383</v>
+        <v>8.071069782155851</v>
       </c>
       <c r="F24">
-        <v>43.24127137758862</v>
+        <v>45.64553504091632</v>
       </c>
       <c r="G24">
-        <v>31.82845724791376</v>
+        <v>2.069148263617361</v>
       </c>
       <c r="H24">
-        <v>32.38985174747473</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.94915328277704</v>
+        <v>6.255734409422789</v>
       </c>
       <c r="K24">
-        <v>21.4791392806974</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>15.49041915891014</v>
+        <v>5.922993121618957</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.88885611809842</v>
+      </c>
+      <c r="N24">
+        <v>15.11678551480688</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.08735014535648</v>
+        <v>29.53220036794815</v>
       </c>
       <c r="C25">
-        <v>13.01870197638813</v>
+        <v>19.31452125078666</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.81446652729567</v>
+        <v>7.499622308598871</v>
       </c>
       <c r="F25">
-        <v>38.78711117113617</v>
+        <v>42.89437904950829</v>
       </c>
       <c r="G25">
-        <v>28.93939779356748</v>
+        <v>2.095168195141954</v>
       </c>
       <c r="H25">
-        <v>29.85577582055033</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.73067017058997</v>
+        <v>6.428455492246907</v>
       </c>
       <c r="K25">
-        <v>19.34040165178626</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>14.0366718450017</v>
+        <v>5.833937266365981</v>
       </c>
       <c r="M25">
+        <v>15.75281711436023</v>
+      </c>
+      <c r="N25">
+        <v>15.42039137801314</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.22560932572408</v>
+        <v>21.09168511459983</v>
       </c>
       <c r="C2">
-        <v>17.51199870937476</v>
+        <v>14.73106029720779</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.075548572304149</v>
+        <v>11.39049530110173</v>
       </c>
       <c r="F2">
-        <v>40.92725525416</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.114575062619726</v>
+        <v>11.78128409668876</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.117363418550297</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.559879653780539</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.775662244992041</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>14.916119684224</v>
+        <v>18.20190689944292</v>
       </c>
       <c r="N2">
-        <v>15.66329442215331</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>8.751351346283338</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.60903997953268</v>
+        <v>19.77261004938216</v>
       </c>
       <c r="C3">
-        <v>16.22055268077156</v>
+        <v>13.96849158837216</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.784334663607397</v>
+        <v>10.82902808937078</v>
       </c>
       <c r="F3">
-        <v>39.63037373271487</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.127988976090621</v>
+        <v>11.60938129395463</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.268461002840215</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.65172366322159</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.740584595431391</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.35019213155362</v>
+        <v>17.05212269978852</v>
       </c>
       <c r="N3">
-        <v>15.83876989157038</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>8.935813087479811</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.59114763139137</v>
+        <v>18.91685174588068</v>
       </c>
       <c r="C4">
-        <v>15.39151666300128</v>
+        <v>13.47950965976835</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.603233641497407</v>
+        <v>10.48804407220809</v>
       </c>
       <c r="F4">
-        <v>38.85240306609195</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.136384492506164</v>
+        <v>11.55434444209482</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.367916343175721</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.709536155999625</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.721186607694598</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.00396703252119</v>
+        <v>16.30796745580303</v>
       </c>
       <c r="N4">
-        <v>15.95155084804589</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.068240098426909</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.17025229492726</v>
+        <v>18.55662120767178</v>
       </c>
       <c r="C5">
-        <v>15.04439011500426</v>
+        <v>13.27517936217015</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.528811068018865</v>
+        <v>10.3502406989186</v>
       </c>
       <c r="F5">
-        <v>38.54009024242428</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.139849825598237</v>
+        <v>11.54400612401782</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.41003993259667</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.733460067257267</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.713814759319542</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.86332854260071</v>
+        <v>15.9951099702805</v>
       </c>
       <c r="N5">
-        <v>15.99873659707908</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.126651411116036</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.10000475894629</v>
+        <v>18.49611166668119</v>
       </c>
       <c r="C6">
-        <v>14.98618321324927</v>
+        <v>13.24094964846291</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.516414576377557</v>
+        <v>10.32743445342537</v>
       </c>
       <c r="F6">
-        <v>38.48851947318693</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.140428015610262</v>
+        <v>11.54299905899618</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.41712854001526</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.737454886204223</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.712622713991513</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.84000723022306</v>
+        <v>15.94258006113949</v>
       </c>
       <c r="N6">
-        <v>16.00664477408172</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.136608722007438</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.58549553659214</v>
+        <v>18.91204007370237</v>
       </c>
       <c r="C7">
-        <v>15.38687306610898</v>
+        <v>13.47677427462854</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.602232523710873</v>
+        <v>10.48618066249652</v>
       </c>
       <c r="F7">
-        <v>38.8481718457237</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.136431043605308</v>
+        <v>11.55415697723104</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.368478084878324</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.709857314341915</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.721085036941475</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.00206831213421</v>
+        <v>16.30378704990654</v>
       </c>
       <c r="N7">
-        <v>15.95218229395347</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.069010324426332</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.67359753065301</v>
+        <v>20.64639073456299</v>
       </c>
       <c r="C8">
-        <v>17.07406107325653</v>
+        <v>14.47251857037598</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.975582674645836</v>
+        <v>11.19623687397144</v>
       </c>
       <c r="F8">
-        <v>40.47634475004755</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.11916965796333</v>
+        <v>11.71120692433281</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.168020742327132</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.591257334095883</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.763120213865229</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>14.72080086799546</v>
+        <v>17.81337682050879</v>
       </c>
       <c r="N8">
-        <v>15.72272640815784</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>8.810742618588536</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.56134152253683</v>
+        <v>23.6836641782167</v>
       </c>
       <c r="C9">
-        <v>20.10726780753147</v>
+        <v>16.25519046576495</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.692352920081818</v>
+        <v>12.61082829621042</v>
       </c>
       <c r="F9">
-        <v>43.81182981882066</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.086380423492169</v>
+        <v>12.43875422445387</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.832348167683969</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.36962737631373</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.862782276689197</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16.13562189080492</v>
+        <v>20.47188627926216</v>
       </c>
       <c r="N9">
-        <v>15.3149259045614</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>8.474418676768378</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.32855357707815</v>
+        <v>25.69451296545905</v>
       </c>
       <c r="C10">
-        <v>22.18532188396282</v>
+        <v>17.45611363744629</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.214900638535623</v>
+        <v>13.87775068017888</v>
       </c>
       <c r="F10">
-        <v>46.35023698887714</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.062612506568404</v>
+        <v>13.24202999789822</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.627838641590094</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.213101214271436</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.94691975055989</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.17455967393182</v>
+        <v>22.2437718909746</v>
       </c>
       <c r="N10">
-        <v>15.04475209396025</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>8.357318935724004</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.6349662469113</v>
+        <v>26.56189891897525</v>
       </c>
       <c r="C11">
-        <v>23.10261958226258</v>
+        <v>17.97816123900218</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.4533634772075</v>
+        <v>14.46091220254297</v>
       </c>
       <c r="F11">
-        <v>47.52590806502022</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.05178401715888</v>
+        <v>13.71544243178104</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.54582474127356</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.14322122920116</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.987680187669021</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>17.64702349453906</v>
+        <v>23.01129149307098</v>
       </c>
       <c r="N11">
-        <v>14.92931805896326</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8.338171569459551</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.12471241586578</v>
+        <v>26.88359812073549</v>
       </c>
       <c r="C12">
-        <v>23.446400343876</v>
+        <v>18.1723261259612</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.54394589168003</v>
+        <v>14.67939591066838</v>
       </c>
       <c r="F12">
-        <v>47.97439927452103</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.047672705309163</v>
+        <v>13.92454360695432</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.516535090179304</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.116950948530602</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.00348431701066</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>17.82596120872463</v>
+        <v>23.29647094757248</v>
       </c>
       <c r="N12">
-        <v>14.8867953583686</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8.336309037731853</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.01944951049182</v>
+        <v>26.81461426498869</v>
       </c>
       <c r="C13">
-        <v>23.37251231192364</v>
+        <v>18.13066633880182</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.524421652412217</v>
+        <v>14.6324442362069</v>
       </c>
       <c r="F13">
-        <v>47.87765651828156</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.048558779214985</v>
+        <v>13.8792593750892</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.522761399990239</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.122600128272722</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.000063988961614</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>17.78742133529875</v>
+        <v>23.23529413504382</v>
       </c>
       <c r="N13">
-        <v>14.89589838016558</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8.336463068848788</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.67535456926441</v>
+        <v>26.58850049451114</v>
       </c>
       <c r="C14">
-        <v>23.13097155571025</v>
+        <v>17.99420605900277</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.46080897373408</v>
+        <v>14.47893342621783</v>
       </c>
       <c r="F14">
-        <v>47.56273771327494</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.051446046673808</v>
+        <v>13.7325318832213</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.543378521801374</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.141056091713256</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.988972931093897</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>17.66174384154243</v>
+        <v>23.03486240861282</v>
       </c>
       <c r="N14">
-        <v>14.925795102885</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.337907660436173</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.46395477121676</v>
+        <v>26.44912040337348</v>
       </c>
       <c r="C15">
-        <v>22.98256917781057</v>
+        <v>17.91016058845373</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.421886842214867</v>
+        <v>14.38460105648841</v>
       </c>
       <c r="F15">
-        <v>47.37027977531188</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.053212901532005</v>
+        <v>13.64339685721019</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.556243045114359</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.152385984623039</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.982227785702812</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>17.58476836885523</v>
+        <v>22.91138308192112</v>
       </c>
       <c r="N15">
-        <v>14.94426646401673</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.339508190493266</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.24245567914319</v>
+        <v>25.63687826520569</v>
       </c>
       <c r="C16">
-        <v>22.12484734726572</v>
+        <v>17.42150513325759</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.199345682985907</v>
+        <v>13.83930582934533</v>
       </c>
       <c r="F16">
-        <v>46.2738464874831</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.063319152487887</v>
+        <v>13.21551481548613</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5.633435297811341</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.217694706500004</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.944306913645014</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.14368298590234</v>
+        <v>22.19284379412758</v>
       </c>
       <c r="N16">
-        <v>15.05245564896501</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>8.359298407653517</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.50730606339459</v>
+        <v>25.12649632630556</v>
       </c>
       <c r="C17">
-        <v>21.59178494788087</v>
+        <v>17.11548803015079</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.063128959351019</v>
+        <v>13.50050022180214</v>
       </c>
       <c r="F17">
-        <v>45.60674311723235</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.069509215173028</v>
+        <v>12.98960217847332</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.683735638867243</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.258098423711034</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.921687836385722</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>16.87307140933993</v>
+        <v>21.74222795516482</v>
       </c>
       <c r="N17">
-        <v>15.12081457774232</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>8.380525650619308</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.10012617631645</v>
+        <v>24.82847691931882</v>
       </c>
       <c r="C18">
-        <v>21.28251364471161</v>
+        <v>16.93719282852161</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.984839226009348</v>
+        <v>13.30402529542509</v>
       </c>
       <c r="F18">
-        <v>45.22498997806178</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.073068613338986</v>
+        <v>12.86513245678813</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.713691947857804</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.281461966045589</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.908911100346137</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.71740265174941</v>
+        <v>21.47941480176095</v>
       </c>
       <c r="N18">
-        <v>15.16082773434319</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>8.395918358715331</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.96184020499533</v>
+        <v>24.72680509851718</v>
       </c>
       <c r="C19">
-        <v>21.17732888352663</v>
+        <v>16.87643446750448</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.958337019387208</v>
+        <v>13.237224515154</v>
       </c>
       <c r="F19">
-        <v>45.09606281547806</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.074273835633473</v>
+        <v>12.82393326098518</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.724005445091747</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.289393849881446</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.904624850244308</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.66469172406347</v>
+        <v>21.38980504143449</v>
       </c>
       <c r="N19">
-        <v>15.17449169339841</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>8.401661892400512</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.58246724774943</v>
+        <v>25.18128874543466</v>
       </c>
       <c r="C20">
-        <v>21.6488034317648</v>
+        <v>17.14830057821404</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.077622264998425</v>
+        <v>13.53673195459116</v>
       </c>
       <c r="F20">
-        <v>45.67755426573598</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.068850429049406</v>
+        <v>13.01308612363336</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.678273754723202</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.253784508487071</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.924071469007284</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>16.90188035933491</v>
+        <v>21.7905720423203</v>
       </c>
       <c r="N20">
-        <v>15.11346496736389</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>8.377932968051926</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.77655431375361</v>
+        <v>26.65509864740629</v>
       </c>
       <c r="C21">
-        <v>23.20201115930363</v>
+        <v>18.03438357498291</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.479484344980936</v>
+        <v>14.52408613436665</v>
       </c>
       <c r="F21">
-        <v>47.6551448470396</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.050598353332413</v>
+        <v>13.77547578119922</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.537273246663582</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.135629892156615</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.992220522651746</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>17.69865704203355</v>
+        <v>23.09388169376247</v>
       </c>
       <c r="N21">
-        <v>14.91698038637093</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8.337333372328319</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.19334789979731</v>
+        <v>27.57893895358683</v>
       </c>
       <c r="C22">
-        <v>24.19651766395767</v>
+        <v>18.59294790953657</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.743875499481321</v>
+        <v>15.15575666730659</v>
       </c>
       <c r="F22">
-        <v>48.96701765982695</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.038601676728223</v>
+        <v>14.39436047168632</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.45552250898182</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.059530699300875</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.038918334279731</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>18.21960569178209</v>
+        <v>23.91386606077666</v>
       </c>
       <c r="N22">
-        <v>14.79557202858179</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>8.342412143273293</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.43962805384665</v>
+        <v>27.08945277092456</v>
       </c>
       <c r="C23">
-        <v>23.66744854991099</v>
+        <v>18.29671901873612</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.602537262789587</v>
+        <v>14.81983308670534</v>
       </c>
       <c r="F23">
-        <v>48.26494434632498</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.045013899300994</v>
+        <v>14.06110974407898</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.498136629850454</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.100042016570996</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.013792778498874</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>17.9415177484757</v>
+        <v>23.47910752039581</v>
       </c>
       <c r="N23">
-        <v>14.85968441149246</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>8.336655489262547</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.54849498219573</v>
+        <v>25.1565314057528</v>
       </c>
       <c r="C24">
-        <v>21.62303415010607</v>
+        <v>17.13347337919619</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.071069782155851</v>
+        <v>13.52035686217932</v>
       </c>
       <c r="F24">
-        <v>45.64553504091632</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.069148263617361</v>
+        <v>13.00245216494478</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.680739853052781</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.255734409422789</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.922993121618957</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>16.88885611809842</v>
+        <v>21.7687273606309</v>
       </c>
       <c r="N24">
-        <v>15.11678551480688</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>8.379095224012802</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.53220036794815</v>
+        <v>22.90088159479781</v>
       </c>
       <c r="C25">
-        <v>19.31452125078666</v>
+        <v>15.79175141836969</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.499622308598871</v>
+        <v>12.22671834361804</v>
       </c>
       <c r="F25">
-        <v>42.89437904950829</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.095168195141954</v>
+        <v>12.19503993402698</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.916335304545423</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.428455492246907</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.833937266365981</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.75281711436023</v>
+        <v>19.78477002646595</v>
       </c>
       <c r="N25">
-        <v>15.42039137801314</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>8.544547767587368</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.09168511459983</v>
+        <v>12.31185386054396</v>
       </c>
       <c r="C2">
-        <v>14.73106029720779</v>
+        <v>10.11626123327131</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.39049530110173</v>
+        <v>12.02127045850227</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>11.78128409668876</v>
+        <v>15.85889875550464</v>
       </c>
       <c r="H2">
-        <v>6.117363418550297</v>
+        <v>11.13038194287012</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.20190689944292</v>
+        <v>14.08220036599496</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.751351346283338</v>
+        <v>15.1985073221303</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.77261004938216</v>
+        <v>11.59983846277207</v>
       </c>
       <c r="C3">
-        <v>13.96849158837216</v>
+        <v>9.748213023181888</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.82902808937078</v>
+        <v>11.97245278535159</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>11.60938129395463</v>
+        <v>16.02954982958105</v>
       </c>
       <c r="H3">
-        <v>6.268461002840215</v>
+        <v>11.2022018525049</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.05212269978852</v>
+        <v>13.7322606534324</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.935813087479811</v>
+        <v>15.32945736226491</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91685174588068</v>
+        <v>11.13874100402733</v>
       </c>
       <c r="C4">
-        <v>13.47950965976835</v>
+        <v>9.514618661399259</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.48804407220809</v>
+        <v>11.94829259168963</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>11.55434444209482</v>
+        <v>16.1464153507662</v>
       </c>
       <c r="H4">
-        <v>6.367916343175721</v>
+        <v>11.2489548823832</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.30796745580303</v>
+        <v>13.51488933768148</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.068240098426909</v>
+        <v>15.41542754251826</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.55662120767178</v>
+        <v>10.94492874164935</v>
       </c>
       <c r="C5">
-        <v>13.27517936217015</v>
+        <v>9.417631514144853</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.3502406989186</v>
+        <v>11.93991396945585</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>11.54400612401782</v>
+        <v>16.1970330931781</v>
       </c>
       <c r="H5">
-        <v>6.41003993259667</v>
+        <v>11.26867483665019</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.9951099702805</v>
+        <v>13.42580576585454</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.126651411116036</v>
+        <v>15.45185578075706</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.49611166668119</v>
+        <v>10.9123928214129</v>
       </c>
       <c r="C6">
-        <v>13.24094964846291</v>
+        <v>9.401422140667803</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.32743445342537</v>
+        <v>11.93861138478871</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>11.54299905899618</v>
+        <v>16.20561765805988</v>
       </c>
       <c r="H6">
-        <v>6.41712854001526</v>
+        <v>11.27198964964152</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.94258006113949</v>
+        <v>13.41098696476583</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.136608722007438</v>
+        <v>15.45798875492476</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91204007370237</v>
+        <v>11.13615096516846</v>
       </c>
       <c r="C7">
-        <v>13.47677427462854</v>
+        <v>9.513317762949214</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.48618066249652</v>
+        <v>11.94817365118775</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>11.55415697723104</v>
+        <v>16.14708593556965</v>
       </c>
       <c r="H7">
-        <v>6.368478084878324</v>
+        <v>11.24921812899067</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.30378704990654</v>
+        <v>13.51368978944069</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.069010324426332</v>
+        <v>15.41591318593436</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.64639073456299</v>
+        <v>12.07136952402198</v>
       </c>
       <c r="C8">
-        <v>14.47251857037598</v>
+        <v>9.991004962637192</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.19623687397144</v>
+        <v>12.0032352262813</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>11.71120692433281</v>
+        <v>15.91520405406711</v>
       </c>
       <c r="H8">
-        <v>6.168020742327132</v>
+        <v>11.15459433924502</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.81337682050879</v>
+        <v>13.96213600829622</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.810742618588536</v>
+        <v>15.24250054988653</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.6836641782167</v>
+        <v>13.75421859045071</v>
       </c>
       <c r="C9">
-        <v>16.25519046576495</v>
+        <v>10.86279749348028</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.61082829621042</v>
+        <v>12.15698725062742</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>12.43875422445387</v>
+        <v>15.55836978930097</v>
       </c>
       <c r="H9">
-        <v>5.832348167683969</v>
+        <v>10.9901056053752</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.47188627926216</v>
+        <v>14.81637159306386</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>8.474418676768378</v>
+        <v>14.94683537137701</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.69451296545905</v>
+        <v>14.87794316594925</v>
       </c>
       <c r="C10">
-        <v>17.45611363744629</v>
+        <v>11.45843910347277</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.87775068017888</v>
+        <v>12.29717968704845</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>13.24202999789822</v>
+        <v>15.3585809488787</v>
       </c>
       <c r="H10">
-        <v>5.627838641590094</v>
+        <v>10.88209921434705</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.2437718909746</v>
+        <v>15.42206788461447</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8.357318935724004</v>
+        <v>14.75700079558623</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.56189891897525</v>
+        <v>15.35995621029956</v>
       </c>
       <c r="C11">
-        <v>17.97816123900218</v>
+        <v>11.71877368985363</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.46091220254297</v>
+        <v>12.36666833736408</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>13.71544243178104</v>
+        <v>15.28180312738522</v>
       </c>
       <c r="H11">
-        <v>5.54582474127356</v>
+        <v>10.83575414009229</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.01129149307098</v>
+        <v>15.69161766836012</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>8.338171569459551</v>
+        <v>14.67666205120963</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.88359812073549</v>
+        <v>15.53828789678284</v>
       </c>
       <c r="C12">
-        <v>18.1723261259612</v>
+        <v>11.81576562966889</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.67939591066838</v>
+        <v>12.39378293855381</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>13.92454360695432</v>
+        <v>15.25480322122782</v>
       </c>
       <c r="H12">
-        <v>5.516535090179304</v>
+        <v>10.81860560717687</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.29647094757248</v>
+        <v>15.792735761312</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.336309037731853</v>
+        <v>14.6471118734113</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.81461426498869</v>
+        <v>15.50006757818447</v>
       </c>
       <c r="C13">
-        <v>18.13066633880182</v>
+        <v>11.79494836070799</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.6324442362069</v>
+        <v>12.38790806818154</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>13.8792593750892</v>
+        <v>15.26052517251691</v>
       </c>
       <c r="H13">
-        <v>5.522761399990239</v>
+        <v>10.82228099236212</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.23529413504382</v>
+        <v>15.77100203908445</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>8.336463068848788</v>
+        <v>14.65343712060126</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.58850049451114</v>
+        <v>15.37471175504523</v>
       </c>
       <c r="C14">
-        <v>17.99420605900277</v>
+        <v>11.72678549494094</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.47893342621783</v>
+        <v>12.36888315175811</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>13.7325318832213</v>
+        <v>15.27954000266484</v>
       </c>
       <c r="H14">
-        <v>5.543378521801374</v>
+        <v>10.83433527347397</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.03486240861282</v>
+        <v>15.69995635628486</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>8.337907660436173</v>
+        <v>14.67421341600589</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.44912040337348</v>
+        <v>15.29738126453512</v>
       </c>
       <c r="C15">
-        <v>17.91016058845373</v>
+        <v>11.68482483267861</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.38460105648841</v>
+        <v>12.35733346198957</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>13.64339685721019</v>
+        <v>15.29145858615625</v>
       </c>
       <c r="H15">
-        <v>5.556243045114359</v>
+        <v>10.84177115074136</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.91138308192112</v>
+        <v>15.65631185542438</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.339508190493266</v>
+        <v>14.68705331547889</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.63687826520569</v>
+        <v>14.84585524222085</v>
       </c>
       <c r="C16">
-        <v>17.42150513325759</v>
+        <v>11.44120621306033</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.83930582934533</v>
+        <v>12.29275168944884</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>13.21551481548613</v>
+        <v>15.36388635932314</v>
       </c>
       <c r="H16">
-        <v>5.633435297811341</v>
+        <v>10.88518410768436</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.19284379412758</v>
+        <v>15.40432353580259</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.359298407653517</v>
+        <v>14.76237280984663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.12649632630556</v>
+        <v>14.5613843699156</v>
       </c>
       <c r="C17">
-        <v>17.11548803015079</v>
+        <v>11.28898486371706</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.50050022180214</v>
+        <v>12.25458228677711</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>12.98960217847332</v>
+        <v>15.4119644721388</v>
       </c>
       <c r="H17">
-        <v>5.683735638867243</v>
+        <v>10.91253084591324</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.74222795516482</v>
+        <v>15.24813473284359</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.380525650619308</v>
+        <v>14.81012511765762</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.82847691931882</v>
+        <v>14.39501794062377</v>
       </c>
       <c r="C18">
-        <v>16.93719282852161</v>
+        <v>11.20043421550608</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.30402529542509</v>
+        <v>12.23316753285209</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>12.86513245678813</v>
+        <v>15.44094290359211</v>
       </c>
       <c r="H18">
-        <v>5.713691947857804</v>
+        <v>10.92852231306924</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.47941480176095</v>
+        <v>15.15774089672676</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.395918358715331</v>
+        <v>14.83815698777682</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.72680509851718</v>
+        <v>14.33821753667796</v>
       </c>
       <c r="C19">
-        <v>16.87643446750448</v>
+        <v>11.17028332615204</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.237224515154</v>
+        <v>12.22601008710644</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>12.82393326098518</v>
+        <v>15.45098069185971</v>
       </c>
       <c r="H19">
-        <v>5.724005445091747</v>
+        <v>10.93398179339431</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.38980504143449</v>
+        <v>15.12704222310338</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.401661892400512</v>
+        <v>14.84774510046467</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.18128874543466</v>
+        <v>14.59195103085342</v>
       </c>
       <c r="C20">
-        <v>17.14830057821404</v>
+        <v>11.30529275192422</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.53673195459116</v>
+        <v>12.25858981624768</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>13.01308612363336</v>
+        <v>15.4067089900539</v>
       </c>
       <c r="H20">
-        <v>5.678273754723202</v>
+        <v>10.90959258367227</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.7905720423203</v>
+        <v>15.2648197714271</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.377932968051926</v>
+        <v>14.80498317364473</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.65509864740629</v>
+        <v>15.41164567069918</v>
       </c>
       <c r="C21">
-        <v>18.03438357498291</v>
+        <v>11.74685022445076</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.52408613436665</v>
+        <v>12.37444967696485</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>13.77547578119922</v>
+        <v>15.27389823656605</v>
       </c>
       <c r="H21">
-        <v>5.537273246663582</v>
+        <v>10.83078374242332</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.09388169376247</v>
+        <v>15.72085081252474</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.337333372328319</v>
+        <v>14.66808718191296</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.57893895358683</v>
+        <v>15.92290698586819</v>
       </c>
       <c r="C22">
-        <v>18.59294790953657</v>
+        <v>12.02613584312096</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.15575666730659</v>
+        <v>12.45482693133306</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>14.39436047168632</v>
+        <v>15.19920881437082</v>
       </c>
       <c r="H22">
-        <v>5.45552250898182</v>
+        <v>10.7816172015251</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.91386606077666</v>
+        <v>16.01329140653004</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.342412143273293</v>
+        <v>14.58370593953788</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.08945277092456</v>
+        <v>15.65227432056921</v>
       </c>
       <c r="C23">
-        <v>18.29671901873612</v>
+        <v>11.87794529450097</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.81983308670534</v>
+        <v>12.41150954691901</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>14.06110974407898</v>
+        <v>15.23794919298513</v>
       </c>
       <c r="H23">
-        <v>5.498136629850454</v>
+        <v>10.80764405896523</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.47910752039581</v>
+        <v>15.85775199726979</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.336655489262547</v>
+        <v>14.62827385484875</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.1565314057528</v>
+        <v>14.57814062811144</v>
       </c>
       <c r="C24">
-        <v>17.13347337919619</v>
+        <v>11.29792317949248</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.52035686217932</v>
+        <v>12.25677636175055</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>13.00245216494478</v>
+        <v>15.40908083018208</v>
       </c>
       <c r="H24">
-        <v>5.680739853052781</v>
+        <v>10.91092013268646</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.7687273606309</v>
+        <v>15.25727832342706</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.379095224012802</v>
+        <v>14.80730604524692</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90088159479781</v>
+        <v>13.31455670207033</v>
       </c>
       <c r="C25">
-        <v>15.79175141836969</v>
+        <v>10.63449542071862</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.22671834361804</v>
+        <v>12.11055132678083</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>12.19503993402698</v>
+        <v>15.64414274121531</v>
       </c>
       <c r="H25">
-        <v>5.916335304545423</v>
+        <v>11.03234890016742</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.78477002646595</v>
+        <v>14.5886794547111</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>8.544547767587368</v>
+        <v>15.02203492316789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.31185386054396</v>
+        <v>21.09168511459981</v>
       </c>
       <c r="C2">
-        <v>10.11626123327131</v>
+        <v>14.73106029720775</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.02127045850227</v>
+        <v>11.39049530110171</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>15.85889875550464</v>
+        <v>11.78128409668873</v>
       </c>
       <c r="H2">
-        <v>11.13038194287012</v>
+        <v>6.117363418550233</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.08220036599496</v>
+        <v>18.20190689944293</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.1985073221303</v>
+        <v>8.751351346283277</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.59983846277207</v>
+        <v>19.77261004938212</v>
       </c>
       <c r="C3">
-        <v>9.748213023181888</v>
+        <v>13.96849158837231</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.97245278535159</v>
+        <v>10.82902808937082</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>16.02954982958105</v>
+        <v>11.60938129395463</v>
       </c>
       <c r="H3">
-        <v>11.2022018525049</v>
+        <v>6.268461002840217</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.7322606534324</v>
+        <v>17.0521226997885</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.32945736226491</v>
+        <v>8.935813087479811</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.13874100402733</v>
+        <v>18.91685174588067</v>
       </c>
       <c r="C4">
-        <v>9.514618661399259</v>
+        <v>13.47950965976827</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.94829259168963</v>
+        <v>10.48804407220808</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>16.1464153507662</v>
+        <v>11.55434444209488</v>
       </c>
       <c r="H4">
-        <v>11.2489548823832</v>
+        <v>6.367916343175721</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.51488933768148</v>
+        <v>16.30796745580304</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.41542754251826</v>
+        <v>9.068240098426962</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.94492874164935</v>
+        <v>18.55662120767181</v>
       </c>
       <c r="C5">
-        <v>9.417631514144853</v>
+        <v>13.27517936217018</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.93991396945585</v>
+        <v>10.35024069891863</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>16.1970330931781</v>
+        <v>11.54400612401763</v>
       </c>
       <c r="H5">
-        <v>11.26867483665019</v>
+        <v>6.41003993259661</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.42580576585454</v>
+        <v>15.99510997028051</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.45185578075706</v>
+        <v>9.126651411115912</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.9123928214129</v>
+        <v>18.49611166668113</v>
       </c>
       <c r="C6">
-        <v>9.401422140667803</v>
+        <v>13.24094964846308</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.93861138478871</v>
+        <v>10.32743445342534</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>16.20561765805988</v>
+        <v>11.5429990589961</v>
       </c>
       <c r="H6">
-        <v>11.27198964964152</v>
+        <v>6.417128540015319</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.41098696476583</v>
+        <v>15.94258006113949</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.45798875492476</v>
+        <v>9.136608722007464</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.13615096516846</v>
+        <v>18.9120400737023</v>
       </c>
       <c r="C7">
-        <v>9.513317762949214</v>
+        <v>13.47677427462859</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.94817365118775</v>
+        <v>10.48618066249652</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>16.14708593556965</v>
+        <v>11.55415697723119</v>
       </c>
       <c r="H7">
-        <v>11.24921812899067</v>
+        <v>6.368478084878324</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.51368978944069</v>
+        <v>16.30378704990651</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.41591318593436</v>
+        <v>9.069010324426415</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.07136952402198</v>
+        <v>20.64639073456295</v>
       </c>
       <c r="C8">
-        <v>9.991004962637192</v>
+        <v>14.47251857037592</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.0032352262813</v>
+        <v>11.19623687397145</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>15.91520405406711</v>
+        <v>11.71120692433286</v>
       </c>
       <c r="H8">
-        <v>11.15459433924502</v>
+        <v>6.168020742327135</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.96213600829622</v>
+        <v>17.81337682050878</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.24250054988653</v>
+        <v>8.810742618588559</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.75421859045071</v>
+        <v>23.68366417821668</v>
       </c>
       <c r="C9">
-        <v>10.86279749348028</v>
+        <v>16.25519046576495</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.15698725062742</v>
+        <v>12.61082829621042</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>15.55836978930097</v>
+        <v>12.43875422445387</v>
       </c>
       <c r="H9">
-        <v>10.9901056053752</v>
+        <v>5.832348167684021</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.81637159306386</v>
+        <v>20.47188627926216</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.94683537137701</v>
+        <v>8.47441867676841</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.87794316594925</v>
+        <v>25.69451296545907</v>
       </c>
       <c r="C10">
-        <v>11.45843910347277</v>
+        <v>17.45611363744639</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.29717968704845</v>
+        <v>13.87775068017891</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>15.3585809488787</v>
+        <v>13.24202999789818</v>
       </c>
       <c r="H10">
-        <v>10.88209921434705</v>
+        <v>5.627838641590036</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.42206788461447</v>
+        <v>22.24377189097465</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.75700079558623</v>
+        <v>8.357318935723894</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.35995621029956</v>
+        <v>26.56189891897533</v>
       </c>
       <c r="C11">
-        <v>11.71877368985363</v>
+        <v>17.9781612390021</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.36666833736408</v>
+        <v>14.46091220254301</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>15.28180312738522</v>
+        <v>13.71544243178111</v>
       </c>
       <c r="H11">
-        <v>10.83575414009229</v>
+        <v>5.545824741273528</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.69161766836012</v>
+        <v>23.01129149307104</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.67666205120963</v>
+        <v>8.338171569459488</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.53828789678284</v>
+        <v>26.8835981207355</v>
       </c>
       <c r="C12">
-        <v>11.81576562966889</v>
+        <v>18.17232612596118</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.39378293855381</v>
+        <v>14.67939591066834</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>15.25480322122782</v>
+        <v>13.92454360695432</v>
       </c>
       <c r="H12">
-        <v>10.81860560717687</v>
+        <v>5.516535090179316</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.792735761312</v>
+        <v>23.29647094757247</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.6471118734113</v>
+        <v>8.336309037731846</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.50006757818447</v>
+        <v>26.81461426498869</v>
       </c>
       <c r="C13">
-        <v>11.79494836070799</v>
+        <v>18.13066633880181</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.38790806818154</v>
+        <v>14.63244423620695</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>15.26052517251691</v>
+        <v>13.8792593750892</v>
       </c>
       <c r="H13">
-        <v>10.82228099236212</v>
+        <v>5.522761399990223</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.77100203908445</v>
+        <v>23.23529413504385</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.65343712060126</v>
+        <v>8.336463068848792</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.37471175504523</v>
+        <v>26.58850049451113</v>
       </c>
       <c r="C14">
-        <v>11.72678549494094</v>
+        <v>17.99420605900281</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.36888315175811</v>
+        <v>14.47893342621779</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>15.27954000266484</v>
+        <v>13.73253188322133</v>
       </c>
       <c r="H14">
-        <v>10.83433527347397</v>
+        <v>5.543378521801317</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.69995635628486</v>
+        <v>23.0348624086128</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.67421341600589</v>
+        <v>8.337907660436139</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.29738126453512</v>
+        <v>26.44912040337351</v>
       </c>
       <c r="C15">
-        <v>11.68482483267861</v>
+        <v>17.91016058845359</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.35733346198957</v>
+        <v>14.38460105648844</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>15.29145858615625</v>
+        <v>13.64339685721018</v>
       </c>
       <c r="H15">
-        <v>10.84177115074136</v>
+        <v>5.556243045114354</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.65631185542438</v>
+        <v>22.91138308192114</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.68705331547889</v>
+        <v>8.339508190493296</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.84585524222085</v>
+        <v>25.63687826520579</v>
       </c>
       <c r="C16">
-        <v>11.44120621306033</v>
+        <v>17.42150513325775</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.29275168944884</v>
+        <v>13.83930582934529</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>15.36388635932314</v>
+        <v>13.21551481548602</v>
       </c>
       <c r="H16">
-        <v>10.88518410768436</v>
+        <v>5.633435297811327</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.40432353580259</v>
+        <v>22.19284379412764</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.76237280984663</v>
+        <v>8.359298407653398</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.5613843699156</v>
+        <v>25.12649632630549</v>
       </c>
       <c r="C17">
-        <v>11.28898486371706</v>
+        <v>17.11548803015068</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.25458228677711</v>
+        <v>13.50050022180223</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>15.4119644721388</v>
+        <v>12.98960217847348</v>
       </c>
       <c r="H17">
-        <v>10.91253084591324</v>
+        <v>5.683735638867272</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.24813473284359</v>
+        <v>21.74222795516482</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.81012511765762</v>
+        <v>8.380525650619486</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.39501794062377</v>
+        <v>24.82847691931878</v>
       </c>
       <c r="C18">
-        <v>11.20043421550608</v>
+        <v>16.93719282852166</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.23316753285209</v>
+        <v>13.30402529542511</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>15.44094290359211</v>
+        <v>12.86513245678812</v>
       </c>
       <c r="H18">
-        <v>10.92852231306924</v>
+        <v>5.713691947857848</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.15774089672676</v>
+        <v>21.47941480176096</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.83815698777682</v>
+        <v>8.39591835871536</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.33821753667796</v>
+        <v>24.7268050985172</v>
       </c>
       <c r="C19">
-        <v>11.17028332615204</v>
+        <v>16.8764344675045</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.22601008710644</v>
+        <v>13.23722451515401</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>15.45098069185971</v>
+        <v>12.82393326098516</v>
       </c>
       <c r="H19">
-        <v>10.93398179339431</v>
+        <v>5.724005445091686</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.12704222310338</v>
+        <v>21.3898050414345</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.84774510046467</v>
+        <v>8.401661892400467</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.59195103085342</v>
+        <v>25.18128874543468</v>
       </c>
       <c r="C20">
-        <v>11.30529275192422</v>
+        <v>17.14830057821412</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.25858981624768</v>
+        <v>13.53673195459118</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>15.4067089900539</v>
+        <v>13.01308612363336</v>
       </c>
       <c r="H20">
-        <v>10.90959258367227</v>
+        <v>5.678273754723161</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.2648197714271</v>
+        <v>21.79057204232033</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.80498317364473</v>
+        <v>8.377932968051896</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.41164567069918</v>
+        <v>26.65509864740632</v>
       </c>
       <c r="C21">
-        <v>11.74685022445076</v>
+        <v>18.03438357498285</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.37444967696485</v>
+        <v>14.52408613436667</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>15.27389823656605</v>
+        <v>13.77547578119923</v>
       </c>
       <c r="H21">
-        <v>10.83078374242332</v>
+        <v>5.537273246663603</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.72085081252474</v>
+        <v>23.09388169376248</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.66808718191296</v>
+        <v>8.337333372328315</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.92290698586819</v>
+        <v>27.57893895358685</v>
       </c>
       <c r="C22">
-        <v>12.02613584312096</v>
+        <v>18.59294790953659</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.45482693133306</v>
+        <v>15.15575666730654</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>15.19920881437082</v>
+        <v>14.39436047168628</v>
       </c>
       <c r="H22">
-        <v>10.7816172015251</v>
+        <v>5.455522508981771</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.01329140653004</v>
+        <v>23.91386606077664</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.58370593953788</v>
+        <v>8.342412143273267</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.65227432056921</v>
+        <v>27.08945277092463</v>
       </c>
       <c r="C23">
-        <v>11.87794529450097</v>
+        <v>18.29671901873604</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.41150954691901</v>
+        <v>14.81983308670537</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>15.23794919298513</v>
+        <v>14.06110974407896</v>
       </c>
       <c r="H23">
-        <v>10.80764405896523</v>
+        <v>5.498136629850443</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.85775199726979</v>
+        <v>23.47910752039583</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.62827385484875</v>
+        <v>8.336655489262492</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.57814062811144</v>
+        <v>25.15653140575288</v>
       </c>
       <c r="C24">
-        <v>11.29792317949248</v>
+        <v>17.13347337919612</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.25677636175055</v>
+        <v>13.52035686217932</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>15.40908083018208</v>
+        <v>13.00245216494474</v>
       </c>
       <c r="H24">
-        <v>10.91092013268646</v>
+        <v>5.680739853052676</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.25727832342706</v>
+        <v>21.76872736063093</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.80730604524692</v>
+        <v>8.379095224012701</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.31455670207033</v>
+        <v>22.90088159479777</v>
       </c>
       <c r="C25">
-        <v>10.63449542071862</v>
+        <v>15.79175141836957</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.11055132678083</v>
+        <v>12.22671834361802</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>15.64414274121531</v>
+        <v>12.19503993402702</v>
       </c>
       <c r="H25">
-        <v>11.03234890016742</v>
+        <v>5.916335304545478</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.5886794547111</v>
+        <v>19.78477002646592</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.02203492316789</v>
+        <v>8.544547767587432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.09168511459981</v>
+        <v>20.25394088162384</v>
       </c>
       <c r="C2">
-        <v>14.73106029720775</v>
+        <v>13.50499687292399</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.39049530110171</v>
+        <v>8.641799473191442</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>29.23561776656594</v>
       </c>
       <c r="G2">
-        <v>11.78128409668873</v>
+        <v>34.57773877538835</v>
       </c>
       <c r="H2">
-        <v>6.117363418550233</v>
+        <v>2.5014909781518</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.893469653480096</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.34768530168378</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.83274925630186</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.589673235967346</v>
       </c>
       <c r="M2">
-        <v>18.20190689944293</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.730883157008192</v>
       </c>
       <c r="O2">
-        <v>8.751351346283277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.34042847667687</v>
+      </c>
+      <c r="P2">
+        <v>12.91691383996746</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.77261004938212</v>
+        <v>18.9625018666973</v>
       </c>
       <c r="C3">
-        <v>13.96849158837231</v>
+        <v>12.72938805965817</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.82902808937082</v>
+        <v>8.511057768245076</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.43866736251462</v>
       </c>
       <c r="G3">
-        <v>11.60938129395463</v>
+        <v>33.33830842442335</v>
       </c>
       <c r="H3">
-        <v>6.268461002840217</v>
+        <v>2.741596001102988</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.090455486697564</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.20909017757858</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.6951651975996</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.537371679149445</v>
       </c>
       <c r="M3">
-        <v>17.0521226997885</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.525975934716897</v>
       </c>
       <c r="O3">
-        <v>8.935813087479811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.7343196720418</v>
+      </c>
+      <c r="P3">
+        <v>13.06426915090953</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91685174588067</v>
+        <v>18.12262314275507</v>
       </c>
       <c r="C4">
-        <v>13.47950965976827</v>
+        <v>12.23125308117224</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.48804407220808</v>
+        <v>8.42899231609538</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>27.94600709272943</v>
       </c>
       <c r="G4">
-        <v>11.55434444209488</v>
+        <v>32.56671243719113</v>
       </c>
       <c r="H4">
-        <v>6.367916343175721</v>
+        <v>2.894207403085222</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.216360878821634</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.12670397663105</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.61440234912617</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.503949214416809</v>
       </c>
       <c r="M4">
-        <v>16.30796745580304</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.398229561920291</v>
       </c>
       <c r="O4">
-        <v>9.068240098426962</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.348178358981</v>
+      </c>
+      <c r="P4">
+        <v>13.15624716260899</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.55662120767181</v>
+        <v>17.76224876466573</v>
       </c>
       <c r="C5">
-        <v>13.27517936217018</v>
+        <v>12.02719771347367</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.35024069891863</v>
+        <v>8.394978780282166</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>27.73619008203845</v>
       </c>
       <c r="G5">
-        <v>11.54400612401763</v>
+        <v>32.23040453971494</v>
       </c>
       <c r="H5">
-        <v>6.41003993259661</v>
+        <v>2.958103378563082</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.271773824627251</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.09020436211899</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.57508180233045</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.490201022110241</v>
       </c>
       <c r="M5">
-        <v>15.99510997028051</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.34737217230466</v>
       </c>
       <c r="O5">
-        <v>9.126651411115912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.18656957876511</v>
+      </c>
+      <c r="P5">
+        <v>13.19389945720843</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.49611166668113</v>
+        <v>17.69390619824721</v>
       </c>
       <c r="C6">
-        <v>13.24094964846308</v>
+        <v>11.99838112268677</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.32743445342534</v>
+        <v>8.389177054212658</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>27.69097642877239</v>
       </c>
       <c r="G6">
-        <v>11.5429990589961</v>
+        <v>32.15043202929786</v>
       </c>
       <c r="H6">
-        <v>6.417128540015319</v>
+        <v>2.969257230890339</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.284704059021096</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.07976509410957</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.55964933137309</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.488146923810349</v>
       </c>
       <c r="M6">
-        <v>15.94258006113949</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.340910190407116</v>
       </c>
       <c r="O6">
-        <v>9.136608722007464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.15842592707058</v>
+      </c>
+      <c r="P6">
+        <v>13.19991606697459</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9120400737023</v>
+        <v>18.09700785350997</v>
       </c>
       <c r="C7">
-        <v>13.47677427462859</v>
+        <v>12.24296909450554</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.48618066249652</v>
+        <v>8.428198278185597</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>27.91519675332875</v>
       </c>
       <c r="G7">
-        <v>11.55415697723119</v>
+        <v>32.49740484197091</v>
       </c>
       <c r="H7">
-        <v>6.368478084878324</v>
+        <v>2.896310472299369</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.226807794445686</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.11418969191205</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.58947295182538</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.504464781332468</v>
       </c>
       <c r="M7">
-        <v>16.30378704990651</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.402980430264432</v>
       </c>
       <c r="O7">
-        <v>9.069010324426415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.34301616991351</v>
+      </c>
+      <c r="P7">
+        <v>13.15611583120786</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.64639073456295</v>
+        <v>19.79293760258111</v>
       </c>
       <c r="C8">
-        <v>14.47251857037592</v>
+        <v>13.2600002249212</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.19623687397145</v>
+        <v>8.596653211490343</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>28.92590278362643</v>
       </c>
       <c r="G8">
-        <v>11.71120692433286</v>
+        <v>34.07075514233563</v>
       </c>
       <c r="H8">
-        <v>6.168020742327135</v>
+        <v>2.584786353077535</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.972956908571171</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.28370001254025</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.75262964713208</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.572926852095279</v>
       </c>
       <c r="M8">
-        <v>17.81337682050878</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.667632684737356</v>
       </c>
       <c r="O8">
-        <v>8.810742618588559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.13066210838622</v>
+      </c>
+      <c r="P8">
+        <v>12.96689141638313</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.68366417821668</v>
+        <v>22.77822377754129</v>
       </c>
       <c r="C9">
-        <v>16.25519046576495</v>
+        <v>15.05631145160404</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.61082829621042</v>
+        <v>8.914242738417665</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>30.91942992632464</v>
       </c>
       <c r="G9">
-        <v>12.43875422445387</v>
+        <v>37.16543515707392</v>
       </c>
       <c r="H9">
-        <v>5.832348167684021</v>
+        <v>2.011921318643707</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.497768300734142</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.65841407787502</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.14578082798121</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.695378375404642</v>
       </c>
       <c r="M9">
-        <v>20.47188627926216</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.16006876025533</v>
       </c>
       <c r="O9">
-        <v>8.47441867676841</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.56293883061742</v>
+      </c>
+      <c r="P9">
+        <v>12.60778726259569</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.69451296545907</v>
+        <v>24.71807223810578</v>
       </c>
       <c r="C10">
-        <v>17.45611363744639</v>
+        <v>16.29378904300846</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.87775068017891</v>
+        <v>9.114390659661826</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>32.14020420798102</v>
       </c>
       <c r="G10">
-        <v>13.24202999789818</v>
+        <v>39.09945584810115</v>
       </c>
       <c r="H10">
-        <v>5.627838641590036</v>
+        <v>1.647745214218474</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.775768639295507</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.8934723955504</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.3526294798914</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.78893703615675</v>
       </c>
       <c r="M10">
-        <v>22.24377189097465</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.435180793290693</v>
       </c>
       <c r="O10">
-        <v>8.357318935723894</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.45827335950919</v>
+      </c>
+      <c r="P10">
+        <v>12.35233088882932</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.56189891897533</v>
+        <v>25.10876140320753</v>
       </c>
       <c r="C11">
-        <v>17.9781612390021</v>
+        <v>17.0093985353357</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.46091220254301</v>
+        <v>9.054394635860859</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>30.94291894348529</v>
       </c>
       <c r="G11">
-        <v>13.71544243178111</v>
+        <v>37.86885290547693</v>
       </c>
       <c r="H11">
-        <v>5.545824741273528</v>
+        <v>2.682111685334404</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.870927243222158</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.57501727101165</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.63838461790404</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.937515773044391</v>
       </c>
       <c r="M11">
-        <v>23.01129149307104</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.920827017731999</v>
       </c>
       <c r="O11">
-        <v>8.338171569459488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.17737135799212</v>
+      </c>
+      <c r="P11">
+        <v>12.27738477316716</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.8835981207355</v>
+        <v>25.05827153206551</v>
       </c>
       <c r="C12">
-        <v>18.17232612596118</v>
+        <v>17.34464675649005</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.67939591066834</v>
+        <v>9.067653708767889</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>29.69273485909599</v>
       </c>
       <c r="G12">
-        <v>13.92454360695432</v>
+        <v>36.48196668468989</v>
       </c>
       <c r="H12">
-        <v>5.516535090179316</v>
+        <v>4.095263117675976</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.884141567619349</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.26704881311204</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.02250743518951</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.070828709731754</v>
       </c>
       <c r="M12">
-        <v>23.29647094757247</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.439774939777911</v>
       </c>
       <c r="O12">
-        <v>8.336309037731846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.74961930200311</v>
+      </c>
+      <c r="P12">
+        <v>12.2905742201606</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.81461426498869</v>
+        <v>24.63969351493725</v>
       </c>
       <c r="C13">
-        <v>18.13066633880181</v>
+        <v>17.43416845700608</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.63244423620695</v>
+        <v>9.132485468859009</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>28.26655998445233</v>
       </c>
       <c r="G13">
-        <v>13.8792593750892</v>
+        <v>34.76689510319407</v>
       </c>
       <c r="H13">
-        <v>5.522761399990223</v>
+        <v>5.540042984443414</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.839491712488567</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.92752587289325</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.40667720757806</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.198878621775884</v>
       </c>
       <c r="M13">
-        <v>23.23529413504385</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.962267256159032</v>
       </c>
       <c r="O13">
-        <v>8.336463068848792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.16857807103467</v>
+      </c>
+      <c r="P13">
+        <v>12.36770238712006</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.58850049451113</v>
+        <v>24.16926000639804</v>
       </c>
       <c r="C14">
-        <v>17.99420605900281</v>
+        <v>17.39072209681044</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.47893342621779</v>
+        <v>9.212013787946669</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>27.17445992281712</v>
       </c>
       <c r="G14">
-        <v>13.73253188322133</v>
+        <v>33.38432810824921</v>
       </c>
       <c r="H14">
-        <v>5.543378521801317</v>
+        <v>6.560500392913165</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.78333985820215</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.67203876455845</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.97208991032998</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.288863375028678</v>
       </c>
       <c r="M14">
-        <v>23.0348624086128</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.637185471186331</v>
       </c>
       <c r="O14">
-        <v>8.337907660436139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.68509768197425</v>
+      </c>
+      <c r="P14">
+        <v>12.45179649829172</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.44912040337351</v>
+        <v>23.96769403690387</v>
       </c>
       <c r="C15">
-        <v>17.91016058845359</v>
+        <v>17.33203207590896</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.38460105648844</v>
+        <v>9.227485792188473</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>26.86356637177051</v>
       </c>
       <c r="G15">
-        <v>13.64339685721018</v>
+        <v>32.95612725134848</v>
       </c>
       <c r="H15">
-        <v>5.556243045114354</v>
+        <v>6.798535315916684</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.758459650871223</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.59993913231216</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.8596793013207</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.306822511189789</v>
       </c>
       <c r="M15">
-        <v>22.91138308192114</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.557886504436447</v>
       </c>
       <c r="O15">
-        <v>8.339508190493296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.53337798768748</v>
+      </c>
+      <c r="P15">
+        <v>12.48336623071054</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.63687826520579</v>
+        <v>23.20060635770925</v>
       </c>
       <c r="C16">
-        <v>17.42150513325775</v>
+        <v>16.82114368697555</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.83930582934529</v>
+        <v>9.120606595609544</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>26.56687163503001</v>
       </c>
       <c r="G16">
-        <v>13.21551481548602</v>
+        <v>32.34759522536886</v>
       </c>
       <c r="H16">
-        <v>5.633435297811327</v>
+        <v>6.606539167253568</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.635973479241651</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.55357737021918</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.87768314098063</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.239338332484847</v>
       </c>
       <c r="M16">
-        <v>22.19284379412764</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.529408392062079</v>
       </c>
       <c r="O16">
-        <v>8.359298407653398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.24358069971723</v>
+      </c>
+      <c r="P16">
+        <v>12.56498689000417</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.12649632630549</v>
+        <v>22.86192539989494</v>
       </c>
       <c r="C17">
-        <v>17.11548803015068</v>
+        <v>16.4456019863507</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.50050022180223</v>
+        <v>8.987617040949953</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>26.9325662971938</v>
       </c>
       <c r="G17">
-        <v>12.98960217847348</v>
+        <v>32.64151926597529</v>
       </c>
       <c r="H17">
-        <v>5.683735638867272</v>
+        <v>5.888992081131594</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.571990161905228</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.65572963040511</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.12179202207048</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.13735222846871</v>
       </c>
       <c r="M17">
-        <v>21.74222795516482</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.678659922981842</v>
       </c>
       <c r="O17">
-        <v>8.380525650619486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.28589130647338</v>
+      </c>
+      <c r="P17">
+        <v>12.58408466762827</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.82847691931878</v>
+        <v>22.88024758507416</v>
       </c>
       <c r="C18">
-        <v>16.93719282852166</v>
+        <v>16.13962951010152</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.30402529542511</v>
+        <v>8.867490846822266</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>27.92716744938059</v>
       </c>
       <c r="G18">
-        <v>12.86513245678812</v>
+        <v>33.78574710911965</v>
       </c>
       <c r="H18">
-        <v>5.713691947857848</v>
+        <v>4.665196640529109</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.548505728475926</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.9040158969381</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.60735069452787</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.004331081829087</v>
       </c>
       <c r="M18">
-        <v>21.47941480176096</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.014195115822548</v>
       </c>
       <c r="O18">
-        <v>8.39591835871536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.62171460418294</v>
+      </c>
+      <c r="P18">
+        <v>12.55978541619354</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.7268050985172</v>
+        <v>23.15567367533198</v>
       </c>
       <c r="C19">
-        <v>16.8764344675045</v>
+        <v>15.93982772531161</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.23722451515401</v>
+        <v>8.840557430111385</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>29.30201319823185</v>
       </c>
       <c r="G19">
-        <v>12.82393326098516</v>
+        <v>35.40349685906372</v>
       </c>
       <c r="H19">
-        <v>5.724005445091686</v>
+        <v>3.22834260189</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.57142575975213</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.22971929740504</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.21725201507777</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.878751277359051</v>
       </c>
       <c r="M19">
-        <v>21.3898050414345</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.505937986597616</v>
       </c>
       <c r="O19">
-        <v>8.401661892400467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.15684052861505</v>
+      </c>
+      <c r="P19">
+        <v>12.51983712018611</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.18128874543468</v>
+        <v>24.16204350372621</v>
       </c>
       <c r="C20">
-        <v>17.14830057821412</v>
+        <v>16.01293869276461</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.53673195459118</v>
+        <v>9.059828917079738</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>31.73623572123411</v>
       </c>
       <c r="G20">
-        <v>13.01308612363336</v>
+        <v>38.4138776985559</v>
       </c>
       <c r="H20">
-        <v>5.678273754723161</v>
+        <v>1.744243681069956</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.704790143831535</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.7937753767591</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.22068239092192</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.768078126291014</v>
       </c>
       <c r="M20">
-        <v>21.79057204232033</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.375269977780981</v>
       </c>
       <c r="O20">
-        <v>8.377932968051896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.21678810134969</v>
+      </c>
+      <c r="P20">
+        <v>12.41958578453455</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.65509864740632</v>
+        <v>25.69503807842344</v>
       </c>
       <c r="C21">
-        <v>18.03438357498285</v>
+        <v>16.89084638487402</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.52408613436667</v>
+        <v>9.252872107629845</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>32.98497328750656</v>
       </c>
       <c r="G21">
-        <v>13.77547578119923</v>
+        <v>40.2749851659154</v>
       </c>
       <c r="H21">
-        <v>5.537273246663603</v>
+        <v>1.696028060346637</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.948434200563321</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.05948098317092</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.54157889875346</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.822629431187052</v>
       </c>
       <c r="M21">
-        <v>23.09388169376248</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.696691301959373</v>
       </c>
       <c r="O21">
-        <v>8.337333372328315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.99986882218363</v>
+      </c>
+      <c r="P21">
+        <v>12.22243382913162</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.57893895358685</v>
+        <v>26.64537987370047</v>
       </c>
       <c r="C22">
-        <v>18.59294790953659</v>
+        <v>17.44163415634774</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.15575666730654</v>
+        <v>9.365010631230192</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>33.72055676011995</v>
       </c>
       <c r="G22">
-        <v>14.39436047168628</v>
+        <v>41.41945120724531</v>
       </c>
       <c r="H22">
-        <v>5.455522508981771</v>
+        <v>1.88438138703142</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.098740637708367</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.22517064958686</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.73852593137162</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.860777486112989</v>
       </c>
       <c r="M22">
-        <v>23.91386606077664</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.858668662827712</v>
       </c>
       <c r="O22">
-        <v>8.342412143273267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.45929982297831</v>
+      </c>
+      <c r="P22">
+        <v>12.09504564256385</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.08945277092463</v>
+        <v>26.16006635362199</v>
       </c>
       <c r="C23">
-        <v>18.29671901873604</v>
+        <v>17.13660290272458</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.81983308670537</v>
+        <v>9.305563539316756</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>33.35669798442748</v>
       </c>
       <c r="G23">
-        <v>14.06110974407896</v>
+        <v>40.8722972687444</v>
       </c>
       <c r="H23">
-        <v>5.498136629850443</v>
+        <v>1.785358754914878</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.014852037675768</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.1494773794146</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.65996783168055</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.839422843186544</v>
       </c>
       <c r="M23">
-        <v>23.47910752039583</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.766944544175477</v>
       </c>
       <c r="O23">
-        <v>8.336655489262492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.21840228231351</v>
+      </c>
+      <c r="P23">
+        <v>12.16258312609569</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.15653140575288</v>
+        <v>24.20622652260092</v>
       </c>
       <c r="C24">
-        <v>17.13347337919612</v>
+        <v>15.96262368804581</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.52035686217932</v>
+        <v>9.078364301577567</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>31.91803507575216</v>
       </c>
       <c r="G24">
-        <v>13.00245216494474</v>
+        <v>38.66964821513942</v>
       </c>
       <c r="H24">
-        <v>5.680739853052676</v>
+        <v>1.723735532285316</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.698345111919047</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.84741171742147</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.32886568828199</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.75794616822177</v>
       </c>
       <c r="M24">
-        <v>21.76872736063093</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.422241597171517</v>
       </c>
       <c r="O24">
-        <v>8.379095224012701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.27037686189971</v>
+      </c>
+      <c r="P24">
+        <v>12.42083508105898</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90088159479777</v>
+        <v>21.97920336799613</v>
       </c>
       <c r="C25">
-        <v>15.79175141836957</v>
+        <v>14.6114225941092</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.22671834361802</v>
+        <v>8.829070505659596</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>30.33888040898011</v>
       </c>
       <c r="G25">
-        <v>12.19503993402702</v>
+        <v>36.23577350441403</v>
       </c>
       <c r="H25">
-        <v>5.916335304545478</v>
+        <v>2.164768655345089</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.64109001701331</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.53399471501896</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.99333743004047</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.664896497262802</v>
       </c>
       <c r="M25">
-        <v>19.78477002646592</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.038068231486223</v>
       </c>
       <c r="O25">
-        <v>8.544547767587432</v>
+        <v>14.18397697655688</v>
+      </c>
+      <c r="P25">
+        <v>12.70363214329912</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.25394088162384</v>
+        <v>19.65565843867258</v>
       </c>
       <c r="C2">
-        <v>13.50499687292399</v>
+        <v>13.72788132491698</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.641799473191442</v>
+        <v>8.658662170849505</v>
       </c>
       <c r="F2">
-        <v>29.23561776656594</v>
+        <v>28.29922059617229</v>
       </c>
       <c r="G2">
-        <v>34.57773877538835</v>
+        <v>32.03507535216122</v>
       </c>
       <c r="H2">
-        <v>2.5014909781518</v>
+        <v>2.433140240540092</v>
       </c>
       <c r="I2">
-        <v>2.893469653480096</v>
+        <v>2.794686762969995</v>
       </c>
       <c r="J2">
-        <v>11.34768530168378</v>
+        <v>11.28595169563266</v>
       </c>
       <c r="K2">
-        <v>17.83274925630186</v>
+        <v>16.85148083925982</v>
       </c>
       <c r="L2">
-        <v>5.589673235967346</v>
+        <v>13.97373267868569</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.044385159575</v>
       </c>
       <c r="N2">
-        <v>7.730883157008192</v>
+        <v>5.565389003312212</v>
       </c>
       <c r="O2">
-        <v>13.34042847667687</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.91691383996746</v>
+        <v>8.001519096395162</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.24023153548224</v>
+      </c>
+      <c r="R2">
+        <v>12.80935448047406</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.9625018666973</v>
+        <v>18.4233350127231</v>
       </c>
       <c r="C3">
-        <v>12.72938805965817</v>
+        <v>12.89681015274589</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.511057768245076</v>
+        <v>8.549502160212635</v>
       </c>
       <c r="F3">
-        <v>28.43866736251462</v>
+        <v>27.59454326952803</v>
       </c>
       <c r="G3">
-        <v>33.33830842442335</v>
+        <v>31.01096036388878</v>
       </c>
       <c r="H3">
-        <v>2.741596001102988</v>
+        <v>2.654026400087647</v>
       </c>
       <c r="I3">
-        <v>3.090455486697564</v>
+        <v>2.966083495445139</v>
       </c>
       <c r="J3">
-        <v>11.20909017757858</v>
+        <v>11.14621949389882</v>
       </c>
       <c r="K3">
-        <v>17.6951651975996</v>
+        <v>16.7866325039186</v>
       </c>
       <c r="L3">
-        <v>5.537371679149445</v>
+        <v>14.03404711062634</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.89150127753969</v>
       </c>
       <c r="N3">
-        <v>7.525975934716897</v>
+        <v>5.498894826023623</v>
       </c>
       <c r="O3">
-        <v>12.7343196720418</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.06426915090953</v>
+        <v>7.78808645160225</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.64098759563633</v>
+      </c>
+      <c r="R3">
+        <v>12.93641024673556</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.12262314275507</v>
+        <v>17.62042189566984</v>
       </c>
       <c r="C4">
-        <v>12.23125308117224</v>
+        <v>12.36208641018895</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.42899231609538</v>
+        <v>8.481078950981949</v>
       </c>
       <c r="F4">
-        <v>27.94600709272943</v>
+        <v>27.15876000740501</v>
       </c>
       <c r="G4">
-        <v>32.56671243719113</v>
+        <v>30.37672141082725</v>
       </c>
       <c r="H4">
-        <v>2.894207403085222</v>
+        <v>2.79454241779165</v>
       </c>
       <c r="I4">
-        <v>3.216360878821634</v>
+        <v>3.076047654058938</v>
       </c>
       <c r="J4">
-        <v>11.12670397663105</v>
+        <v>11.06005625620297</v>
       </c>
       <c r="K4">
-        <v>17.61440234912617</v>
+        <v>16.74916613429092</v>
       </c>
       <c r="L4">
-        <v>5.503949214416809</v>
+        <v>14.06904429320578</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.81729929433321</v>
       </c>
       <c r="N4">
-        <v>7.398229561920291</v>
+        <v>5.456780767193494</v>
       </c>
       <c r="O4">
-        <v>12.348178358981</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.15624716260899</v>
+        <v>7.655461762763744</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.2587691418312</v>
+      </c>
+      <c r="R4">
+        <v>13.01641418965843</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.76224876466573</v>
+        <v>17.2753808773325</v>
       </c>
       <c r="C5">
-        <v>12.02719771347367</v>
+        <v>12.14259430866544</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.394978780282166</v>
+        <v>8.452765710510835</v>
       </c>
       <c r="F5">
-        <v>27.73619008203845</v>
+        <v>26.97238717134878</v>
       </c>
       <c r="G5">
-        <v>32.23040453971494</v>
+        <v>30.09802809847993</v>
       </c>
       <c r="H5">
-        <v>2.958103378563082</v>
+        <v>2.853406308069647</v>
       </c>
       <c r="I5">
-        <v>3.271773824627251</v>
+        <v>3.125363161514122</v>
       </c>
       <c r="J5">
-        <v>11.09020436211899</v>
+        <v>11.02136298327961</v>
       </c>
       <c r="K5">
-        <v>17.57508180233045</v>
+        <v>16.72756860786998</v>
       </c>
       <c r="L5">
-        <v>5.490201022110241</v>
+        <v>14.076772264666</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.78767881751286</v>
       </c>
       <c r="N5">
-        <v>7.34737217230466</v>
+        <v>5.439585103526764</v>
       </c>
       <c r="O5">
-        <v>12.18656957876511</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.19389945720843</v>
+        <v>7.602696023724732</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.09869862265845</v>
+      </c>
+      <c r="R5">
+        <v>13.04952883350677</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.69390619824721</v>
+        <v>17.20975181595837</v>
       </c>
       <c r="C6">
-        <v>11.99838112268677</v>
+        <v>12.11130148106257</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.389177054212658</v>
+        <v>8.447964002166957</v>
       </c>
       <c r="F6">
-        <v>27.69097642877239</v>
+        <v>26.93138401909416</v>
       </c>
       <c r="G6">
-        <v>32.15043202929786</v>
+        <v>30.02827520384182</v>
       </c>
       <c r="H6">
-        <v>2.969257230890339</v>
+        <v>2.863688629307885</v>
       </c>
       <c r="I6">
-        <v>3.284704059021096</v>
+        <v>3.137886085117014</v>
       </c>
       <c r="J6">
-        <v>11.07976509410957</v>
+        <v>11.0106468693578</v>
       </c>
       <c r="K6">
-        <v>17.55964933137309</v>
+        <v>16.71558854278468</v>
       </c>
       <c r="L6">
-        <v>5.488146923810349</v>
+        <v>14.0706792271898</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.77766373198872</v>
       </c>
       <c r="N6">
-        <v>7.340910190407116</v>
+        <v>5.437065812979544</v>
       </c>
       <c r="O6">
-        <v>12.15842592707058</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.19991606697459</v>
+        <v>7.59589891275888</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.07082744621137</v>
+      </c>
+      <c r="R6">
+        <v>13.05507793876303</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.09700785350997</v>
+        <v>17.58608966267588</v>
       </c>
       <c r="C7">
-        <v>12.24296909450554</v>
+        <v>12.35749277656166</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.428198278185597</v>
+        <v>8.482046190353303</v>
       </c>
       <c r="F7">
-        <v>27.91519675332875</v>
+        <v>27.11526105719694</v>
       </c>
       <c r="G7">
-        <v>32.49740484197091</v>
+        <v>30.38493262301386</v>
       </c>
       <c r="H7">
-        <v>2.896310472299369</v>
+        <v>2.797166272752452</v>
       </c>
       <c r="I7">
-        <v>3.226807794445686</v>
+        <v>3.088771517064277</v>
       </c>
       <c r="J7">
-        <v>11.11418969191205</v>
+        <v>10.99614370724297</v>
       </c>
       <c r="K7">
-        <v>17.58947295182538</v>
+        <v>16.71535257150332</v>
       </c>
       <c r="L7">
-        <v>5.504464781332468</v>
+        <v>14.04037374552123</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.79481104199495</v>
       </c>
       <c r="N7">
-        <v>7.402980430264432</v>
+        <v>5.458108114619032</v>
       </c>
       <c r="O7">
-        <v>12.34301616991351</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.15611583120786</v>
+        <v>7.661430452054568</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.2514325478042</v>
+      </c>
+      <c r="R7">
+        <v>13.01714118375864</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.79293760258111</v>
+        <v>19.18672706205821</v>
       </c>
       <c r="C8">
-        <v>13.2600002249212</v>
+        <v>13.4138180383904</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.596653211490343</v>
+        <v>8.626239678947774</v>
       </c>
       <c r="F8">
-        <v>28.92590278362643</v>
+        <v>27.97788438461011</v>
       </c>
       <c r="G8">
-        <v>34.07075514233563</v>
+        <v>31.8439835182317</v>
       </c>
       <c r="H8">
-        <v>2.584786353077535</v>
+        <v>2.51185203045913</v>
       </c>
       <c r="I8">
-        <v>2.972956908571171</v>
+        <v>2.869812902994027</v>
       </c>
       <c r="J8">
-        <v>11.28370001254025</v>
+        <v>11.0546625392697</v>
       </c>
       <c r="K8">
-        <v>17.75262964713208</v>
+        <v>16.76412313854967</v>
       </c>
       <c r="L8">
-        <v>5.572926852095279</v>
+        <v>13.94252895202272</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.94155362576927</v>
       </c>
       <c r="N8">
-        <v>7.667632684737356</v>
+        <v>5.546174344882941</v>
       </c>
       <c r="O8">
-        <v>13.13066210838622</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.96689141638313</v>
+        <v>7.939438344341801</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.02584982002936</v>
+      </c>
+      <c r="R8">
+        <v>12.85433168877718</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.77822377754129</v>
+        <v>22.03324110420061</v>
       </c>
       <c r="C9">
-        <v>15.05631145160404</v>
+        <v>15.32672013885133</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.914242738417665</v>
+        <v>8.893069511568779</v>
       </c>
       <c r="F9">
-        <v>30.91942992632464</v>
+        <v>29.73444577732037</v>
       </c>
       <c r="G9">
-        <v>37.16543515707392</v>
+        <v>34.47807998282693</v>
       </c>
       <c r="H9">
-        <v>2.011921318643707</v>
+        <v>1.985933540570857</v>
       </c>
       <c r="I9">
-        <v>2.497768300734142</v>
+        <v>2.509572010847766</v>
       </c>
       <c r="J9">
-        <v>11.65841407787502</v>
+        <v>11.37386711821722</v>
       </c>
       <c r="K9">
-        <v>18.14578082798121</v>
+        <v>16.95850599244427</v>
       </c>
       <c r="L9">
-        <v>5.695378375404642</v>
+        <v>13.79991721317646</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.43583064261333</v>
       </c>
       <c r="N9">
-        <v>8.16006876025533</v>
+        <v>5.704523687732239</v>
       </c>
       <c r="O9">
-        <v>14.56293883061742</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.60778726259569</v>
+        <v>8.455676824405183</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.43825209231318</v>
+      </c>
+      <c r="R9">
+        <v>12.54931302042911</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.71807223810578</v>
+        <v>23.86016653268241</v>
       </c>
       <c r="C10">
-        <v>16.29378904300846</v>
+        <v>16.55871215811706</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.114390659661826</v>
+        <v>9.064177308006142</v>
       </c>
       <c r="F10">
-        <v>32.14020420798102</v>
+        <v>30.72874516708936</v>
       </c>
       <c r="G10">
-        <v>39.09945584810115</v>
+        <v>36.50647458963767</v>
       </c>
       <c r="H10">
-        <v>1.647745214218474</v>
+        <v>1.65742263477563</v>
       </c>
       <c r="I10">
-        <v>2.775768639295507</v>
+        <v>2.781026342808053</v>
       </c>
       <c r="J10">
-        <v>11.8934723955504</v>
+        <v>11.28362177625382</v>
       </c>
       <c r="K10">
-        <v>18.3526294798914</v>
+        <v>16.97093889234035</v>
       </c>
       <c r="L10">
-        <v>5.78893703615675</v>
+        <v>13.58213391983021</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.76595653832769</v>
       </c>
       <c r="N10">
-        <v>8.435180793290693</v>
+        <v>5.831620009705711</v>
       </c>
       <c r="O10">
-        <v>15.45827335950919</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.35233088882932</v>
+        <v>8.752391222895216</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.30821780547907</v>
+      </c>
+      <c r="R10">
+        <v>12.34585164341566</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.10876140320753</v>
+        <v>24.17787354976219</v>
       </c>
       <c r="C11">
-        <v>17.0093985353357</v>
+        <v>17.10705120644605</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.054394635860859</v>
+        <v>8.971829767351194</v>
       </c>
       <c r="F11">
-        <v>30.94291894348529</v>
+        <v>29.42437021397804</v>
       </c>
       <c r="G11">
-        <v>37.86885290547693</v>
+        <v>36.18015883160182</v>
       </c>
       <c r="H11">
-        <v>2.682111685334404</v>
+        <v>2.696645889436396</v>
       </c>
       <c r="I11">
-        <v>2.870927243222158</v>
+        <v>2.861078913550306</v>
       </c>
       <c r="J11">
-        <v>11.57501727101165</v>
+        <v>10.43663117673261</v>
       </c>
       <c r="K11">
-        <v>17.63838461790404</v>
+        <v>16.20214437200735</v>
       </c>
       <c r="L11">
-        <v>5.937515773044391</v>
+        <v>12.93819923106624</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.28999318805063</v>
       </c>
       <c r="N11">
-        <v>7.920827017731999</v>
+        <v>6.030215371238552</v>
       </c>
       <c r="O11">
-        <v>15.17737135799212</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.27738477316716</v>
+        <v>8.225893446775896</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.0080679312892</v>
+      </c>
+      <c r="R11">
+        <v>12.34710307990699</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.05827153206551</v>
+        <v>24.12175986335455</v>
       </c>
       <c r="C12">
-        <v>17.34464675649005</v>
+        <v>17.34563174191053</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.067653708767889</v>
+        <v>8.947421952252578</v>
       </c>
       <c r="F12">
-        <v>29.69273485909599</v>
+        <v>28.17615952063738</v>
       </c>
       <c r="G12">
-        <v>36.48196668468989</v>
+        <v>35.3073304561942</v>
       </c>
       <c r="H12">
-        <v>4.095263117675976</v>
+        <v>4.106212522179296</v>
       </c>
       <c r="I12">
-        <v>2.884141567619349</v>
+        <v>2.870149592017513</v>
       </c>
       <c r="J12">
-        <v>11.26704881311204</v>
+        <v>9.938423750129324</v>
       </c>
       <c r="K12">
-        <v>17.02250743518951</v>
+        <v>15.6209804512435</v>
       </c>
       <c r="L12">
-        <v>6.070828709731754</v>
+        <v>12.5024847420378</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.86235793362849</v>
       </c>
       <c r="N12">
-        <v>7.439774939777911</v>
+        <v>6.194398329869423</v>
       </c>
       <c r="O12">
-        <v>14.74961930200311</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.2905742201606</v>
+        <v>7.722429520020997</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.57628776007403</v>
+      </c>
+      <c r="R12">
+        <v>12.40908003298211</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.63969351493725</v>
+        <v>23.7678580421096</v>
       </c>
       <c r="C13">
-        <v>17.43416845700608</v>
+        <v>17.41786005129861</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.132485468859009</v>
+        <v>8.984598575444142</v>
       </c>
       <c r="F13">
-        <v>28.26655998445233</v>
+        <v>26.86714785591753</v>
       </c>
       <c r="G13">
-        <v>34.76689510319407</v>
+        <v>33.67835313107181</v>
       </c>
       <c r="H13">
-        <v>5.540042984443414</v>
+        <v>5.546483645920293</v>
       </c>
       <c r="I13">
-        <v>2.839491712488567</v>
+        <v>2.832591850332718</v>
       </c>
       <c r="J13">
-        <v>10.92752587289325</v>
+        <v>9.741965472369927</v>
       </c>
       <c r="K13">
-        <v>16.40667720757806</v>
+        <v>15.13429570829429</v>
       </c>
       <c r="L13">
-        <v>6.198878621775884</v>
+        <v>12.17832681028174</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.43889497554664</v>
       </c>
       <c r="N13">
-        <v>6.962267256159032</v>
+        <v>6.334277402731681</v>
       </c>
       <c r="O13">
-        <v>14.16857807103467</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.36770238712006</v>
+        <v>7.211509257741177</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.00725234204963</v>
+      </c>
+      <c r="R13">
+        <v>12.50796185260105</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.16926000639804</v>
+        <v>23.37486450386786</v>
       </c>
       <c r="C14">
-        <v>17.39072209681044</v>
+        <v>17.39715719007866</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.212013787946669</v>
+        <v>9.05814350951997</v>
       </c>
       <c r="F14">
-        <v>27.17445992281712</v>
+        <v>25.90778480505507</v>
       </c>
       <c r="G14">
-        <v>33.38432810824921</v>
+        <v>32.17085649775009</v>
       </c>
       <c r="H14">
-        <v>6.560500392913165</v>
+        <v>6.563777099560529</v>
       </c>
       <c r="I14">
-        <v>2.78333985820215</v>
+        <v>2.786802837338781</v>
       </c>
       <c r="J14">
-        <v>10.67203876455845</v>
+        <v>9.723019245000398</v>
       </c>
       <c r="K14">
-        <v>15.97208991032998</v>
+        <v>14.82912335589725</v>
       </c>
       <c r="L14">
-        <v>6.288863375028678</v>
+        <v>11.99252359448869</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.14131432305427</v>
       </c>
       <c r="N14">
-        <v>6.637185471186331</v>
+        <v>6.422226573925317</v>
       </c>
       <c r="O14">
-        <v>13.68509768197425</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.45179649829172</v>
+        <v>6.858992007916004</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.5391484770715</v>
+      </c>
+      <c r="R14">
+        <v>12.59252387366815</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.96769403690387</v>
+        <v>23.20632057329138</v>
       </c>
       <c r="C15">
-        <v>17.33203207590896</v>
+        <v>17.35904352236396</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.227485792188473</v>
+        <v>9.078133337284855</v>
       </c>
       <c r="F15">
-        <v>26.86356637177051</v>
+        <v>25.65097863303897</v>
       </c>
       <c r="G15">
-        <v>32.95612725134848</v>
+        <v>31.63408373863144</v>
       </c>
       <c r="H15">
-        <v>6.798535315916684</v>
+        <v>6.800645225347244</v>
       </c>
       <c r="I15">
-        <v>2.758459650871223</v>
+        <v>2.767400784132438</v>
       </c>
       <c r="J15">
-        <v>10.59993913231216</v>
+        <v>9.766701344659342</v>
       </c>
       <c r="K15">
-        <v>15.8596793013207</v>
+        <v>14.7649762923804</v>
       </c>
       <c r="L15">
-        <v>6.306822511189789</v>
+        <v>11.96098748220932</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.06423545633371</v>
       </c>
       <c r="N15">
-        <v>6.557886504436447</v>
+        <v>6.435726249146471</v>
       </c>
       <c r="O15">
-        <v>13.53337798768748</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.48336623071054</v>
+        <v>6.771906038023746</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.39417168858445</v>
+      </c>
+      <c r="R15">
+        <v>12.61848532586419</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.20060635770925</v>
+        <v>22.55834065830522</v>
       </c>
       <c r="C16">
-        <v>16.82114368697555</v>
+        <v>16.97088679375456</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.120606595609544</v>
+        <v>9.014985969401076</v>
       </c>
       <c r="F16">
-        <v>26.56687163503001</v>
+        <v>25.53440050967345</v>
       </c>
       <c r="G16">
-        <v>32.34759522536886</v>
+        <v>30.38868739292793</v>
       </c>
       <c r="H16">
-        <v>6.606539167253568</v>
+        <v>6.603409211556084</v>
       </c>
       <c r="I16">
-        <v>2.635973479241651</v>
+        <v>2.667676354661597</v>
       </c>
       <c r="J16">
-        <v>10.55357737021918</v>
+        <v>10.20717178830892</v>
       </c>
       <c r="K16">
-        <v>15.87768314098063</v>
+        <v>14.91823432510514</v>
       </c>
       <c r="L16">
-        <v>6.239338332484847</v>
+        <v>12.13248453059721</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.07096594271082</v>
       </c>
       <c r="N16">
-        <v>6.529408392062079</v>
+        <v>6.336140667151076</v>
       </c>
       <c r="O16">
-        <v>13.24358069971723</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.56498689000417</v>
+        <v>6.735228692174826</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.129264676881</v>
+      </c>
+      <c r="R16">
+        <v>12.65165401025133</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.86192539989494</v>
+        <v>22.25793604483604</v>
       </c>
       <c r="C17">
-        <v>16.4456019863507</v>
+        <v>16.65712421568817</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.987617040949953</v>
+        <v>8.906742170697935</v>
       </c>
       <c r="F17">
-        <v>26.9325662971938</v>
+        <v>25.95001331077743</v>
       </c>
       <c r="G17">
-        <v>32.64151926597529</v>
+        <v>30.36151357340265</v>
       </c>
       <c r="H17">
-        <v>5.888992081131594</v>
+        <v>5.882268158783035</v>
       </c>
       <c r="I17">
-        <v>2.571990161905228</v>
+        <v>2.614919812697232</v>
       </c>
       <c r="J17">
-        <v>10.65572963040511</v>
+        <v>10.50284890786204</v>
       </c>
       <c r="K17">
-        <v>16.12179202207048</v>
+        <v>15.18688038728144</v>
       </c>
       <c r="L17">
-        <v>6.13735222846871</v>
+        <v>12.36260333523593</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.22195243481409</v>
       </c>
       <c r="N17">
-        <v>6.678659922981842</v>
+        <v>6.215002338711661</v>
       </c>
       <c r="O17">
-        <v>13.28589130647338</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.58408466762827</v>
+        <v>6.89272875774547</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.17971074697294</v>
+      </c>
+      <c r="R17">
+        <v>12.64008858270254</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.88024758507416</v>
+        <v>22.26294617618229</v>
       </c>
       <c r="C18">
-        <v>16.13962951010152</v>
+        <v>16.3943252022587</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.867490846822266</v>
+        <v>8.801096868529854</v>
       </c>
       <c r="F18">
-        <v>27.92716744938059</v>
+        <v>26.91411186289884</v>
       </c>
       <c r="G18">
-        <v>33.78574710911965</v>
+        <v>31.27345644826185</v>
       </c>
       <c r="H18">
-        <v>4.665196640529109</v>
+        <v>4.655632545824306</v>
       </c>
       <c r="I18">
-        <v>2.548505728475926</v>
+        <v>2.593495242501425</v>
       </c>
       <c r="J18">
-        <v>10.9040158969381</v>
+        <v>10.80484486549534</v>
       </c>
       <c r="K18">
-        <v>16.60735069452787</v>
+        <v>15.62506323022279</v>
       </c>
       <c r="L18">
-        <v>6.004331081829087</v>
+        <v>12.7020038043155</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.53844793957634</v>
       </c>
       <c r="N18">
-        <v>7.014195115822548</v>
+        <v>6.066921582486201</v>
       </c>
       <c r="O18">
-        <v>13.62171460418294</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.55978541619354</v>
+        <v>7.248304669653803</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.51427355550819</v>
+      </c>
+      <c r="R18">
+        <v>12.58978607756228</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.15567367533198</v>
+        <v>22.48966691688733</v>
       </c>
       <c r="C19">
-        <v>15.93982772531161</v>
+        <v>16.23098475063746</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.840557430111385</v>
+        <v>8.783792564067921</v>
       </c>
       <c r="F19">
-        <v>29.30201319823185</v>
+        <v>28.20906306440417</v>
       </c>
       <c r="G19">
-        <v>35.40349685906372</v>
+        <v>32.69015381011673</v>
       </c>
       <c r="H19">
-        <v>3.22834260189</v>
+        <v>3.216650501836134</v>
       </c>
       <c r="I19">
-        <v>2.57142575975213</v>
+        <v>2.613909233561378</v>
       </c>
       <c r="J19">
-        <v>11.22971929740504</v>
+        <v>11.10889757541493</v>
       </c>
       <c r="K19">
-        <v>17.21725201507777</v>
+        <v>16.14438507528137</v>
       </c>
       <c r="L19">
-        <v>5.878751277359051</v>
+        <v>13.08853228020423</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.94305501789743</v>
       </c>
       <c r="N19">
-        <v>7.505937986597616</v>
+        <v>5.927065838766985</v>
       </c>
       <c r="O19">
-        <v>14.15684052861505</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.51983712018611</v>
+        <v>7.766742068629247</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.04251884559196</v>
+      </c>
+      <c r="R19">
+        <v>12.52590541170275</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.16204350372621</v>
+        <v>23.37068359379251</v>
       </c>
       <c r="C20">
-        <v>16.01293869276461</v>
+        <v>16.32636705469288</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.059828917079738</v>
+        <v>9.012306377926235</v>
       </c>
       <c r="F20">
-        <v>31.73623572123411</v>
+        <v>30.43049893645035</v>
       </c>
       <c r="G20">
-        <v>38.4138776985559</v>
+        <v>35.56695128609029</v>
       </c>
       <c r="H20">
-        <v>1.744243681069956</v>
+        <v>1.742415648495948</v>
       </c>
       <c r="I20">
-        <v>2.704790143831535</v>
+        <v>2.727375538699528</v>
       </c>
       <c r="J20">
-        <v>11.7937753767591</v>
+        <v>11.44377331871122</v>
       </c>
       <c r="K20">
-        <v>18.22068239092192</v>
+        <v>16.93224707885842</v>
       </c>
       <c r="L20">
-        <v>5.768078126291014</v>
+        <v>13.61424755045386</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.64714659751366</v>
       </c>
       <c r="N20">
-        <v>8.375269977780981</v>
+        <v>5.8006095401274</v>
       </c>
       <c r="O20">
-        <v>15.21678810134969</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.41958578453455</v>
+        <v>8.682376381932649</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.08043851153544</v>
+      </c>
+      <c r="R20">
+        <v>12.4001813095886</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.69503807842344</v>
+        <v>24.64841883351235</v>
       </c>
       <c r="C21">
-        <v>16.89084638487402</v>
+        <v>16.96927864783213</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.252872107629845</v>
+        <v>9.219587840894567</v>
       </c>
       <c r="F21">
-        <v>32.98497328750656</v>
+        <v>31.26125704688101</v>
       </c>
       <c r="G21">
-        <v>40.2749851659154</v>
+        <v>38.67688480991184</v>
       </c>
       <c r="H21">
-        <v>1.696028060346637</v>
+        <v>1.660639215935089</v>
       </c>
       <c r="I21">
-        <v>2.948434200563321</v>
+        <v>2.926045963463384</v>
       </c>
       <c r="J21">
-        <v>12.05948098317092</v>
+        <v>10.57644045107289</v>
       </c>
       <c r="K21">
-        <v>18.54157889875346</v>
+        <v>16.89001508915351</v>
       </c>
       <c r="L21">
-        <v>5.822629431187052</v>
+        <v>13.41026196573144</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.87351591606729</v>
       </c>
       <c r="N21">
-        <v>8.696691301959373</v>
+        <v>5.889977098958166</v>
       </c>
       <c r="O21">
-        <v>15.99986882218363</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.22243382913162</v>
+        <v>9.048482868209391</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.80705202197412</v>
+      </c>
+      <c r="R21">
+        <v>12.25209933247681</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.64537987370047</v>
+        <v>25.43274466411154</v>
       </c>
       <c r="C22">
-        <v>17.44163415634774</v>
+        <v>17.35591357978501</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.365010631230192</v>
+        <v>9.346521994148024</v>
       </c>
       <c r="F22">
-        <v>33.72055676011995</v>
+        <v>31.71733109768298</v>
       </c>
       <c r="G22">
-        <v>41.41945120724531</v>
+        <v>40.72058719056367</v>
       </c>
       <c r="H22">
-        <v>1.88438138703142</v>
+        <v>1.825153273902785</v>
       </c>
       <c r="I22">
-        <v>3.098740637708367</v>
+        <v>3.046121862549567</v>
       </c>
       <c r="J22">
-        <v>12.22517064958686</v>
+        <v>9.97310809885828</v>
       </c>
       <c r="K22">
-        <v>18.73852593137162</v>
+        <v>16.83846237974388</v>
       </c>
       <c r="L22">
-        <v>5.860777486112989</v>
+        <v>13.26021513264211</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.00963620961693</v>
       </c>
       <c r="N22">
-        <v>8.858668662827712</v>
+        <v>5.953467325985685</v>
       </c>
       <c r="O22">
-        <v>16.45929982297831</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.09504564256385</v>
+        <v>9.23957252031189</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.22814759026508</v>
+      </c>
+      <c r="R22">
+        <v>12.16215912703223</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.16006635362199</v>
+        <v>25.05293459647299</v>
       </c>
       <c r="C23">
-        <v>17.13660290272458</v>
+        <v>17.16970726434945</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.305563539316756</v>
+        <v>9.273437854090178</v>
       </c>
       <c r="F23">
-        <v>33.35669798442748</v>
+        <v>31.53272053963362</v>
       </c>
       <c r="G23">
-        <v>40.8722972687444</v>
+        <v>39.52500471837093</v>
       </c>
       <c r="H23">
-        <v>1.785358754914878</v>
+        <v>1.739885709819257</v>
       </c>
       <c r="I23">
-        <v>3.014852037675768</v>
+        <v>2.978012740446363</v>
       </c>
       <c r="J23">
-        <v>12.1494773794146</v>
+        <v>10.4174045845512</v>
       </c>
       <c r="K23">
-        <v>18.65996783168055</v>
+        <v>16.91684220711192</v>
       </c>
       <c r="L23">
-        <v>5.839422843186544</v>
+        <v>13.3754309383877</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.97830438812297</v>
       </c>
       <c r="N23">
-        <v>8.766944544175477</v>
+        <v>5.916019881463788</v>
       </c>
       <c r="O23">
-        <v>16.21840228231351</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.16258312609569</v>
+        <v>9.129131940665392</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.01242917938373</v>
+      </c>
+      <c r="R23">
+        <v>12.20546651084926</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.20622652260092</v>
+        <v>23.41110451805847</v>
       </c>
       <c r="C24">
-        <v>15.96262368804581</v>
+        <v>16.28070457753185</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.078364301577567</v>
+        <v>9.032144159577078</v>
       </c>
       <c r="F24">
-        <v>31.91803507575216</v>
+        <v>30.60522509784427</v>
       </c>
       <c r="G24">
-        <v>38.66964821513942</v>
+        <v>35.79190983568568</v>
       </c>
       <c r="H24">
-        <v>1.723735532285316</v>
+        <v>1.722161439525723</v>
       </c>
       <c r="I24">
-        <v>2.698345111919047</v>
+        <v>2.71834878639508</v>
       </c>
       <c r="J24">
-        <v>11.84741171742147</v>
+        <v>11.50068704525234</v>
       </c>
       <c r="K24">
-        <v>18.32886568828199</v>
+        <v>17.02992901356504</v>
       </c>
       <c r="L24">
-        <v>5.75794616822177</v>
+        <v>13.68801518416403</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.72146259701869</v>
       </c>
       <c r="N24">
-        <v>8.422241597171517</v>
+        <v>5.7871759080184</v>
       </c>
       <c r="O24">
-        <v>15.27037686189971</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.42083508105898</v>
+        <v>8.731697015399261</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.13353260586503</v>
+      </c>
+      <c r="R24">
+        <v>12.39550937058625</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.97920336799613</v>
+        <v>21.276907039276</v>
       </c>
       <c r="C25">
-        <v>14.6114225941092</v>
+        <v>14.87287187048223</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.829070505659596</v>
+        <v>8.819379225376824</v>
       </c>
       <c r="F25">
-        <v>30.33888040898011</v>
+        <v>29.23706465197362</v>
       </c>
       <c r="G25">
-        <v>36.23577350441403</v>
+        <v>33.57244243111499</v>
       </c>
       <c r="H25">
-        <v>2.164768655345089</v>
+        <v>2.125285353165959</v>
       </c>
       <c r="I25">
-        <v>2.64109001701331</v>
+        <v>2.58508171239733</v>
       </c>
       <c r="J25">
-        <v>11.53399471501896</v>
+        <v>11.33861010776212</v>
       </c>
       <c r="K25">
-        <v>17.99333743004047</v>
+        <v>16.87848192308518</v>
       </c>
       <c r="L25">
-        <v>5.664896497262802</v>
+        <v>13.8211762167726</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.26722924250296</v>
       </c>
       <c r="N25">
-        <v>8.038068231486223</v>
+        <v>5.664039706731431</v>
       </c>
       <c r="O25">
-        <v>14.18397697655688</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.70363214329912</v>
+        <v>8.325251164257521</v>
       </c>
       <c r="Q25">
+        <v>14.06785042233713</v>
+      </c>
+      <c r="R25">
+        <v>12.63112985511269</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
